--- a/PythonResources/Data/Consumption/Sympheny/futu_1058x1060_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_1058x1060_coo.xlsx
@@ -2591,7 +2591,7 @@
         <v>281</v>
       </c>
       <c r="B281">
-        <v>39.53850689684076</v>
+        <v>39.53850689684075</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -6047,7 +6047,7 @@
         <v>713</v>
       </c>
       <c r="B713">
-        <v>644.518897513644</v>
+        <v>644.5188975136439</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6215,7 +6215,7 @@
         <v>734</v>
       </c>
       <c r="B734">
-        <v>98.94312722037948</v>
+        <v>98.94312722037944</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -6263,7 +6263,7 @@
         <v>740</v>
       </c>
       <c r="B740">
-        <v>31.81579195707565</v>
+        <v>31.81579195707564</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -7175,7 +7175,7 @@
         <v>854</v>
       </c>
       <c r="B854">
-        <v>98.97946802917347</v>
+        <v>98.97946802917346</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -7223,7 +7223,7 @@
         <v>860</v>
       </c>
       <c r="B860">
-        <v>189.513507937243</v>
+        <v>189.5135079372429</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -7239,7 +7239,7 @@
         <v>862</v>
       </c>
       <c r="B862">
-        <v>87.31113769591067</v>
+        <v>87.31113769591066</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -7407,7 +7407,7 @@
         <v>883</v>
       </c>
       <c r="B883">
-        <v>87.30586241721477</v>
+        <v>87.30586241721475</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -8727,7 +8727,7 @@
         <v>1048</v>
       </c>
       <c r="B1048">
-        <v>141.7877685043589</v>
+        <v>141.7877685043588</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
@@ -9135,7 +9135,7 @@
         <v>1099</v>
       </c>
       <c r="B1099">
-        <v>336.653632820674</v>
+        <v>336.6536328206739</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
@@ -9495,7 +9495,7 @@
         <v>1144</v>
       </c>
       <c r="B1144">
-        <v>43.05946235531816</v>
+        <v>43.05946235531815</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
@@ -9647,7 +9647,7 @@
         <v>1163</v>
       </c>
       <c r="B1163">
-        <v>43.04422266130777</v>
+        <v>43.04422266130776</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
@@ -9663,7 +9663,7 @@
         <v>1165</v>
       </c>
       <c r="B1165">
-        <v>303.2376729925074</v>
+        <v>303.2376729925073</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
@@ -9671,7 +9671,7 @@
         <v>1166</v>
       </c>
       <c r="B1166">
-        <v>404.8541942275557</v>
+        <v>404.8541942275556</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
@@ -10079,7 +10079,7 @@
         <v>1217</v>
       </c>
       <c r="B1217">
-        <v>490.7826227630621</v>
+        <v>490.782622763062</v>
       </c>
     </row>
     <row r="1218" spans="1:2">
@@ -10111,7 +10111,7 @@
         <v>1221</v>
       </c>
       <c r="B1221">
-        <v>130.2407695811019</v>
+        <v>130.2407695811018</v>
       </c>
     </row>
     <row r="1222" spans="1:2">
@@ -10855,7 +10855,7 @@
         <v>1314</v>
       </c>
       <c r="B1314">
-        <v>91.21689542815042</v>
+        <v>91.21689542815039</v>
       </c>
     </row>
     <row r="1315" spans="1:2">
@@ -11215,7 +11215,7 @@
         <v>1359</v>
       </c>
       <c r="B1359">
-        <v>504.8177948045539</v>
+        <v>504.8177948045538</v>
       </c>
     </row>
     <row r="1360" spans="1:2">
@@ -11223,7 +11223,7 @@
         <v>1360</v>
       </c>
       <c r="B1360">
-        <v>550.1383002231444</v>
+        <v>550.1383002231443</v>
       </c>
     </row>
     <row r="1361" spans="1:2">
@@ -11431,7 +11431,7 @@
         <v>1386</v>
       </c>
       <c r="B1386">
-        <v>540.8655325598994</v>
+        <v>540.8655325598993</v>
       </c>
     </row>
     <row r="1387" spans="1:2">
@@ -12551,7 +12551,7 @@
         <v>1526</v>
       </c>
       <c r="B1526">
-        <v>43.04392959026911</v>
+        <v>43.0439295902691</v>
       </c>
     </row>
     <row r="1527" spans="1:2">
@@ -13335,7 +13335,7 @@
         <v>1624</v>
       </c>
       <c r="B1624">
-        <v>197.2608408442557</v>
+        <v>197.2608408442556</v>
       </c>
     </row>
     <row r="1625" spans="1:2">
@@ -13703,7 +13703,7 @@
         <v>1670</v>
       </c>
       <c r="B1670">
-        <v>202.1589371134027</v>
+        <v>202.1589371134026</v>
       </c>
     </row>
     <row r="1671" spans="1:2">
@@ -13711,7 +13711,7 @@
         <v>1671</v>
       </c>
       <c r="B1671">
-        <v>248.2214984018837</v>
+        <v>248.2214984018836</v>
       </c>
     </row>
     <row r="1672" spans="1:2">
@@ -13887,7 +13887,7 @@
         <v>1693</v>
       </c>
       <c r="B1693">
-        <v>43.05184250831297</v>
+        <v>43.05184250831296</v>
       </c>
     </row>
     <row r="1694" spans="1:2">
@@ -14271,7 +14271,7 @@
         <v>1741</v>
       </c>
       <c r="B1741">
-        <v>359.0764979886535</v>
+        <v>359.0764979886534</v>
       </c>
     </row>
     <row r="1742" spans="1:2">
@@ -14287,7 +14287,7 @@
         <v>1743</v>
       </c>
       <c r="B1743">
-        <v>505.7028693413112</v>
+        <v>505.7028693413111</v>
       </c>
     </row>
     <row r="1744" spans="1:2">
@@ -14295,7 +14295,7 @@
         <v>1744</v>
       </c>
       <c r="B1744">
-        <v>495.3135010207665</v>
+        <v>495.3135010207664</v>
       </c>
     </row>
     <row r="1745" spans="1:2">
@@ -14311,7 +14311,7 @@
         <v>1746</v>
       </c>
       <c r="B1746">
-        <v>441.3063700162538</v>
+        <v>441.3063700162537</v>
       </c>
     </row>
     <row r="1747" spans="1:2">
@@ -14655,7 +14655,7 @@
         <v>1789</v>
       </c>
       <c r="B1789">
-        <v>98.969503613859</v>
+        <v>98.96950361385898</v>
       </c>
     </row>
     <row r="1790" spans="1:2">
@@ -14687,7 +14687,7 @@
         <v>1793</v>
       </c>
       <c r="B1793">
-        <v>290.2168198158225</v>
+        <v>290.2168198158224</v>
       </c>
     </row>
     <row r="1794" spans="1:2">
@@ -15055,7 +15055,7 @@
         <v>1839</v>
       </c>
       <c r="B1839">
-        <v>312.9940078695436</v>
+        <v>312.9940078695435</v>
       </c>
     </row>
     <row r="1840" spans="1:2">
@@ -15079,7 +15079,7 @@
         <v>1842</v>
       </c>
       <c r="B1842">
-        <v>395.9301811003177</v>
+        <v>395.9301811003176</v>
       </c>
     </row>
     <row r="1843" spans="1:2">
@@ -15231,7 +15231,7 @@
         <v>1861</v>
       </c>
       <c r="B1861">
-        <v>43.0591692842795</v>
+        <v>43.05916928427949</v>
       </c>
     </row>
     <row r="1862" spans="1:2">
@@ -15447,7 +15447,7 @@
         <v>1888</v>
       </c>
       <c r="B1888">
-        <v>654.4774514073565</v>
+        <v>654.4774514073564</v>
       </c>
     </row>
     <row r="1889" spans="1:2">
@@ -15495,7 +15495,7 @@
         <v>1894</v>
       </c>
       <c r="B1894">
-        <v>286.7483240732655</v>
+        <v>286.7483240732654</v>
       </c>
     </row>
     <row r="1895" spans="1:2">
@@ -15863,7 +15863,7 @@
         <v>1940</v>
       </c>
       <c r="B1940">
-        <v>87.31582683252925</v>
+        <v>87.31582683252924</v>
       </c>
     </row>
     <row r="1941" spans="1:2">
@@ -16023,7 +16023,7 @@
         <v>1960</v>
       </c>
       <c r="B1960">
-        <v>504.7738341487547</v>
+        <v>504.7738341487546</v>
       </c>
     </row>
     <row r="1961" spans="1:2">
@@ -16063,7 +16063,7 @@
         <v>1965</v>
       </c>
       <c r="B1965">
-        <v>286.7043634174663</v>
+        <v>286.7043634174662</v>
       </c>
     </row>
     <row r="1966" spans="1:2">
@@ -16391,7 +16391,7 @@
         <v>2006</v>
       </c>
       <c r="B2006">
-        <v>350.0499099978841</v>
+        <v>350.049909997884</v>
       </c>
     </row>
     <row r="2007" spans="1:2">
@@ -16431,7 +16431,7 @@
         <v>2011</v>
       </c>
       <c r="B2011">
-        <v>341.1258968706461</v>
+        <v>341.125896870646</v>
       </c>
     </row>
     <row r="2012" spans="1:2">
@@ -16575,7 +16575,7 @@
         <v>2029</v>
       </c>
       <c r="B2029">
-        <v>354.478213392057</v>
+        <v>354.4782133920569</v>
       </c>
     </row>
     <row r="2030" spans="1:2">
@@ -16631,7 +16631,7 @@
         <v>2036</v>
       </c>
       <c r="B2036">
-        <v>596.2940581019196</v>
+        <v>596.2940581019195</v>
       </c>
     </row>
     <row r="2037" spans="1:2">
@@ -16703,7 +16703,7 @@
         <v>2045</v>
       </c>
       <c r="B2045">
-        <v>115.3888085548609</v>
+        <v>115.3888085548608</v>
       </c>
     </row>
     <row r="2046" spans="1:2">
@@ -16735,7 +16735,7 @@
         <v>2049</v>
       </c>
       <c r="B2049">
-        <v>154.7927958449561</v>
+        <v>154.792795844956</v>
       </c>
     </row>
     <row r="2050" spans="1:2">
@@ -16815,7 +16815,7 @@
         <v>2059</v>
       </c>
       <c r="B2059">
-        <v>865.4505000084991</v>
+        <v>865.450500008499</v>
       </c>
     </row>
     <row r="2060" spans="1:2">
@@ -17543,7 +17543,7 @@
         <v>2150</v>
       </c>
       <c r="B2150">
-        <v>609.2448673003645</v>
+        <v>609.2448673003644</v>
       </c>
     </row>
     <row r="2151" spans="1:2">
@@ -17559,7 +17559,7 @@
         <v>2152</v>
       </c>
       <c r="B2152">
-        <v>742.1320683605783</v>
+        <v>742.1320683605782</v>
       </c>
     </row>
     <row r="2153" spans="1:2">
@@ -17783,7 +17783,7 @@
         <v>2180</v>
       </c>
       <c r="B2180">
-        <v>626.9111895108704</v>
+        <v>626.9111895108703</v>
       </c>
     </row>
     <row r="2181" spans="1:2">
@@ -18687,7 +18687,7 @@
         <v>2293</v>
       </c>
       <c r="B2293">
-        <v>248.719719167608</v>
+        <v>248.7197191676079</v>
       </c>
     </row>
     <row r="2294" spans="1:2">
@@ -18895,7 +18895,7 @@
         <v>2319</v>
       </c>
       <c r="B2319">
-        <v>450.6465440183909</v>
+        <v>450.6465440183908</v>
       </c>
     </row>
     <row r="2320" spans="1:2">
@@ -18903,7 +18903,7 @@
         <v>2320</v>
       </c>
       <c r="B2320">
-        <v>445.8167333012519</v>
+        <v>445.8167333012518</v>
       </c>
     </row>
     <row r="2321" spans="1:2">
@@ -18911,7 +18911,7 @@
         <v>2321</v>
       </c>
       <c r="B2321">
-        <v>446.2768548319502</v>
+        <v>446.2768548319501</v>
       </c>
     </row>
     <row r="2322" spans="1:2">
@@ -18927,7 +18927,7 @@
         <v>2323</v>
       </c>
       <c r="B2323">
-        <v>341.4013836469878</v>
+        <v>341.4013836469877</v>
       </c>
     </row>
     <row r="2324" spans="1:2">
@@ -19119,7 +19119,7 @@
         <v>2347</v>
       </c>
       <c r="B2347">
-        <v>586.010195355293</v>
+        <v>586.0101953552929</v>
       </c>
     </row>
     <row r="2348" spans="1:2">
@@ -19375,7 +19375,7 @@
         <v>2379</v>
       </c>
       <c r="B2379">
-        <v>450.1776303565327</v>
+        <v>450.1776303565326</v>
       </c>
     </row>
     <row r="2380" spans="1:2">
@@ -19455,7 +19455,7 @@
         <v>2389</v>
       </c>
       <c r="B2389">
-        <v>997.3852201930636</v>
+        <v>997.3852201930634</v>
       </c>
     </row>
     <row r="2390" spans="1:2">
@@ -19503,7 +19503,7 @@
         <v>2395</v>
       </c>
       <c r="B2395">
-        <v>903.0925442141624</v>
+        <v>903.0925442141622</v>
       </c>
     </row>
     <row r="2396" spans="1:2">
@@ -19519,7 +19519,7 @@
         <v>2397</v>
       </c>
       <c r="B2397">
-        <v>626.9111895108704</v>
+        <v>626.9111895108703</v>
       </c>
     </row>
     <row r="2398" spans="1:2">
@@ -19663,7 +19663,7 @@
         <v>2415</v>
       </c>
       <c r="B2415">
-        <v>752.6269422550411</v>
+        <v>752.6269422550409</v>
       </c>
     </row>
     <row r="2416" spans="1:2">
@@ -19863,7 +19863,7 @@
         <v>2440</v>
       </c>
       <c r="B2440">
-        <v>996.388778661615</v>
+        <v>996.3887786616148</v>
       </c>
     </row>
     <row r="2441" spans="1:2">
@@ -19895,7 +19895,7 @@
         <v>2444</v>
       </c>
       <c r="B2444">
-        <v>730.6729907489197</v>
+        <v>730.6729907489196</v>
       </c>
     </row>
     <row r="2445" spans="1:2">
@@ -19903,7 +19903,7 @@
         <v>2445</v>
       </c>
       <c r="B2445">
-        <v>636.1253429663831</v>
+        <v>636.125342966383</v>
       </c>
     </row>
     <row r="2446" spans="1:2">
@@ -19927,7 +19927,7 @@
         <v>2448</v>
       </c>
       <c r="B2448">
-        <v>287.195257407224</v>
+        <v>287.1952574072239</v>
       </c>
     </row>
     <row r="2449" spans="1:2">
@@ -20007,7 +20007,7 @@
         <v>2458</v>
       </c>
       <c r="B2458">
-        <v>206.7627900597338</v>
+        <v>206.7627900597337</v>
       </c>
     </row>
     <row r="2459" spans="1:2">
@@ -20015,7 +20015,7 @@
         <v>2459</v>
       </c>
       <c r="B2459">
-        <v>414.1797146777597</v>
+        <v>414.1797146777596</v>
       </c>
     </row>
     <row r="2460" spans="1:2">
@@ -20039,7 +20039,7 @@
         <v>2462</v>
       </c>
       <c r="B2462">
-        <v>884.368235554089</v>
+        <v>884.3682355540889</v>
       </c>
     </row>
     <row r="2463" spans="1:2">
@@ -20079,7 +20079,7 @@
         <v>2467</v>
       </c>
       <c r="B2467">
-        <v>815.4232737090075</v>
+        <v>815.4232737090074</v>
       </c>
     </row>
     <row r="2468" spans="1:2">
@@ -20495,7 +20495,7 @@
         <v>2519</v>
       </c>
       <c r="B2519">
-        <v>678.901991769393</v>
+        <v>678.9019917693929</v>
       </c>
     </row>
     <row r="2520" spans="1:2">
@@ -20887,7 +20887,7 @@
         <v>2568</v>
       </c>
       <c r="B2568">
-        <v>1397.784734632967</v>
+        <v>1397.784734632966</v>
       </c>
     </row>
     <row r="2569" spans="1:2">
@@ -21071,7 +21071,7 @@
         <v>2591</v>
       </c>
       <c r="B2591">
-        <v>879.7230595913067</v>
+        <v>879.7230595913065</v>
       </c>
     </row>
     <row r="2592" spans="1:2">
@@ -21087,7 +21087,7 @@
         <v>2593</v>
       </c>
       <c r="B2593">
-        <v>704.3552114771309</v>
+        <v>704.3552114771308</v>
       </c>
     </row>
     <row r="2594" spans="1:2">
@@ -21119,7 +21119,7 @@
         <v>2597</v>
       </c>
       <c r="B2597">
-        <v>500.6942852905888</v>
+        <v>500.6942852905887</v>
       </c>
     </row>
     <row r="2598" spans="1:2">
@@ -21143,7 +21143,7 @@
         <v>2600</v>
       </c>
       <c r="B2600">
-        <v>492.0252439669862</v>
+        <v>492.0252439669861</v>
       </c>
     </row>
     <row r="2601" spans="1:2">
@@ -21159,7 +21159,7 @@
         <v>2602</v>
       </c>
       <c r="B2602">
-        <v>585.130982239309</v>
+        <v>585.1309822393089</v>
       </c>
     </row>
     <row r="2603" spans="1:2">
@@ -21191,7 +21191,7 @@
         <v>2606</v>
       </c>
       <c r="B2606">
-        <v>863.7389651427169</v>
+        <v>863.7389651427168</v>
       </c>
     </row>
     <row r="2607" spans="1:2">
@@ -21215,7 +21215,7 @@
         <v>2609</v>
       </c>
       <c r="B2609">
-        <v>868.9028768439298</v>
+        <v>868.9028768439297</v>
       </c>
     </row>
     <row r="2610" spans="1:2">
@@ -21231,7 +21231,7 @@
         <v>2611</v>
       </c>
       <c r="B2611">
-        <v>734.7935695524982</v>
+        <v>734.7935695524981</v>
       </c>
     </row>
     <row r="2612" spans="1:2">
@@ -21247,7 +21247,7 @@
         <v>2613</v>
       </c>
       <c r="B2613">
-        <v>536.9354499314508</v>
+        <v>536.9354499314506</v>
       </c>
     </row>
     <row r="2614" spans="1:2">
@@ -21351,7 +21351,7 @@
         <v>2626</v>
       </c>
       <c r="B2626">
-        <v>43.05184250831297</v>
+        <v>43.05184250831296</v>
       </c>
     </row>
     <row r="2627" spans="1:2">
@@ -21367,7 +21367,7 @@
         <v>2628</v>
       </c>
       <c r="B2628">
-        <v>303.3050793313995</v>
+        <v>303.3050793313994</v>
       </c>
     </row>
     <row r="2629" spans="1:2">
@@ -21375,7 +21375,7 @@
         <v>2629</v>
       </c>
       <c r="B2629">
-        <v>460.0687779113531</v>
+        <v>460.068777911353</v>
       </c>
     </row>
     <row r="2630" spans="1:2">
@@ -21399,7 +21399,7 @@
         <v>2632</v>
       </c>
       <c r="B2632">
-        <v>644.2668564203952</v>
+        <v>644.2668564203951</v>
       </c>
     </row>
     <row r="2633" spans="1:2">
@@ -21407,7 +21407,7 @@
         <v>2633</v>
       </c>
       <c r="B2633">
-        <v>645.0845246182604</v>
+        <v>645.0845246182603</v>
       </c>
     </row>
     <row r="2634" spans="1:2">
@@ -21599,7 +21599,7 @@
         <v>2657</v>
       </c>
       <c r="B2657">
-        <v>818.3422612540745</v>
+        <v>818.3422612540744</v>
       </c>
     </row>
     <row r="2658" spans="1:2">
@@ -21607,7 +21607,7 @@
         <v>2658</v>
       </c>
       <c r="B2658">
-        <v>734.7349553447659</v>
+        <v>734.7349553447658</v>
       </c>
     </row>
     <row r="2659" spans="1:2">
@@ -21655,7 +21655,7 @@
         <v>2664</v>
       </c>
       <c r="B2664">
-        <v>27.97676650033909</v>
+        <v>27.97676650033908</v>
       </c>
     </row>
     <row r="2665" spans="1:2">
@@ -21807,7 +21807,7 @@
         <v>2683</v>
       </c>
       <c r="B2683">
-        <v>944.4419370588917</v>
+        <v>944.4419370588914</v>
       </c>
     </row>
     <row r="2684" spans="1:2">
@@ -21815,7 +21815,7 @@
         <v>2684</v>
       </c>
       <c r="B2684">
-        <v>856.9074792315209</v>
+        <v>856.9074792315208</v>
       </c>
     </row>
     <row r="2685" spans="1:2">
@@ -22039,7 +22039,7 @@
         <v>2712</v>
       </c>
       <c r="B2712">
-        <v>738.4716110876981</v>
+        <v>738.471611087698</v>
       </c>
     </row>
     <row r="2713" spans="1:2">
@@ -22063,7 +22063,7 @@
         <v>2715</v>
       </c>
       <c r="B2715">
-        <v>421.9343743607389</v>
+        <v>421.9343743607388</v>
       </c>
     </row>
     <row r="2716" spans="1:2">
@@ -22079,7 +22079,7 @@
         <v>2717</v>
       </c>
       <c r="B2717">
-        <v>320.7047068967236</v>
+        <v>320.7047068967235</v>
       </c>
     </row>
     <row r="2718" spans="1:2">
@@ -22111,7 +22111,7 @@
         <v>2721</v>
       </c>
       <c r="B2721">
-        <v>727.6953889961204</v>
+        <v>727.6953889961203</v>
       </c>
     </row>
     <row r="2722" spans="1:2">
@@ -22143,7 +22143,7 @@
         <v>2725</v>
       </c>
       <c r="B2725">
-        <v>1508.108396426644</v>
+        <v>1508.108396426643</v>
       </c>
     </row>
     <row r="2726" spans="1:2">
@@ -22183,7 +22183,7 @@
         <v>2730</v>
       </c>
       <c r="B2730">
-        <v>1775.585541281694</v>
+        <v>1775.585541281693</v>
       </c>
     </row>
     <row r="2731" spans="1:2">
@@ -22351,7 +22351,7 @@
         <v>2751</v>
       </c>
       <c r="B2751">
-        <v>1825.715342444717</v>
+        <v>1825.715342444716</v>
       </c>
     </row>
     <row r="2752" spans="1:2">
@@ -22415,7 +22415,7 @@
         <v>2759</v>
       </c>
       <c r="B2759">
-        <v>1415.556562417391</v>
+        <v>1415.55656241739</v>
       </c>
     </row>
     <row r="2760" spans="1:2">
@@ -22559,7 +22559,7 @@
         <v>2777</v>
       </c>
       <c r="B2777">
-        <v>1712.982636713244</v>
+        <v>1712.982636713243</v>
       </c>
     </row>
     <row r="2778" spans="1:2">
@@ -22711,7 +22711,7 @@
         <v>2796</v>
       </c>
       <c r="B2796">
-        <v>1480.278370595363</v>
+        <v>1480.278370595362</v>
       </c>
     </row>
     <row r="2797" spans="1:2">
@@ -22839,7 +22839,7 @@
         <v>2812</v>
       </c>
       <c r="B2812">
-        <v>142.7613504947919</v>
+        <v>142.7613504947918</v>
       </c>
     </row>
     <row r="2813" spans="1:2">
@@ -22847,7 +22847,7 @@
         <v>2813</v>
       </c>
       <c r="B2813">
-        <v>87.5960027454895</v>
+        <v>87.59600274548949</v>
       </c>
     </row>
     <row r="2814" spans="1:2">
@@ -22879,7 +22879,7 @@
         <v>2817</v>
       </c>
       <c r="B2817">
-        <v>308.767923492047</v>
+        <v>308.7679234920469</v>
       </c>
     </row>
     <row r="2818" spans="1:2">
@@ -22975,7 +22975,7 @@
         <v>2829</v>
       </c>
       <c r="B2829">
-        <v>627.2540826261042</v>
+        <v>627.254082626104</v>
       </c>
     </row>
     <row r="2830" spans="1:2">
@@ -23087,7 +23087,7 @@
         <v>2843</v>
       </c>
       <c r="B2843">
-        <v>98.95895305646718</v>
+        <v>98.95895305646717</v>
       </c>
     </row>
     <row r="2844" spans="1:2">
@@ -23111,7 +23111,7 @@
         <v>2846</v>
       </c>
       <c r="B2846">
-        <v>504.8558940395799</v>
+        <v>504.8558940395798</v>
       </c>
     </row>
     <row r="2847" spans="1:2">
@@ -23127,7 +23127,7 @@
         <v>2848</v>
       </c>
       <c r="B2848">
-        <v>594.7759501216539</v>
+        <v>594.7759501216538</v>
       </c>
     </row>
     <row r="2849" spans="1:2">
@@ -23159,7 +23159,7 @@
         <v>2852</v>
       </c>
       <c r="B2852">
-        <v>386.8654938745223</v>
+        <v>386.8654938745222</v>
       </c>
     </row>
     <row r="2853" spans="1:2">
@@ -23295,7 +23295,7 @@
         <v>2869</v>
       </c>
       <c r="B2869">
-        <v>459.2188718992352</v>
+        <v>459.2188718992351</v>
       </c>
     </row>
     <row r="2870" spans="1:2">
@@ -23319,7 +23319,7 @@
         <v>2872</v>
       </c>
       <c r="B2872">
-        <v>747.8616071664076</v>
+        <v>747.8616071664075</v>
       </c>
     </row>
     <row r="2873" spans="1:2">
@@ -23367,7 +23367,7 @@
         <v>2878</v>
       </c>
       <c r="B2878">
-        <v>286.7905263028327</v>
+        <v>286.7905263028326</v>
       </c>
     </row>
     <row r="2879" spans="1:2">
@@ -23503,7 +23503,7 @@
         <v>2895</v>
       </c>
       <c r="B2895">
-        <v>1000.289554186198</v>
+        <v>1000.289554186197</v>
       </c>
     </row>
     <row r="2896" spans="1:2">
@@ -23551,7 +23551,7 @@
         <v>2901</v>
       </c>
       <c r="B2901">
-        <v>636.3187698518996</v>
+        <v>636.3187698518994</v>
       </c>
     </row>
     <row r="2902" spans="1:2">
@@ -23575,7 +23575,7 @@
         <v>2904</v>
       </c>
       <c r="B2904">
-        <v>130.9473638553144</v>
+        <v>130.9473638553143</v>
       </c>
     </row>
     <row r="2905" spans="1:2">
@@ -23663,7 +23663,7 @@
         <v>2915</v>
       </c>
       <c r="B2915">
-        <v>363.6015148255847</v>
+        <v>363.6015148255846</v>
       </c>
     </row>
     <row r="2916" spans="1:2">
@@ -23671,7 +23671,7 @@
         <v>2916</v>
       </c>
       <c r="B2916">
-        <v>619.6781962767084</v>
+        <v>619.6781962767083</v>
       </c>
     </row>
     <row r="2917" spans="1:2">
@@ -23727,7 +23727,7 @@
         <v>2923</v>
       </c>
       <c r="B2923">
-        <v>991.8198011688846</v>
+        <v>991.8198011688844</v>
       </c>
     </row>
     <row r="2924" spans="1:2">
@@ -23735,7 +23735,7 @@
         <v>2924</v>
       </c>
       <c r="B2924">
-        <v>853.2440912482541</v>
+        <v>853.244091248254</v>
       </c>
     </row>
     <row r="2925" spans="1:2">
@@ -23751,7 +23751,7 @@
         <v>2926</v>
       </c>
       <c r="B2926">
-        <v>581.8866858413279</v>
+        <v>581.8866858413278</v>
       </c>
     </row>
     <row r="2927" spans="1:2">
@@ -23767,7 +23767,7 @@
         <v>2928</v>
       </c>
       <c r="B2928">
-        <v>282.698668461043</v>
+        <v>282.6986684610429</v>
       </c>
     </row>
     <row r="2929" spans="1:2">
@@ -23975,7 +23975,7 @@
         <v>2954</v>
       </c>
       <c r="B2954">
-        <v>757.4479608410202</v>
+        <v>757.4479608410201</v>
       </c>
     </row>
     <row r="2955" spans="1:2">
@@ -24127,7 +24127,7 @@
         <v>2973</v>
       </c>
       <c r="B2973">
-        <v>2181.823030811731</v>
+        <v>2181.82303081173</v>
       </c>
     </row>
     <row r="2974" spans="1:2">
@@ -24591,7 +24591,7 @@
         <v>3031</v>
       </c>
       <c r="B3031">
-        <v>1452.89088203246</v>
+        <v>1452.890882032459</v>
       </c>
     </row>
     <row r="3032" spans="1:2">
@@ -24599,7 +24599,7 @@
         <v>3032</v>
       </c>
       <c r="B3032">
-        <v>1501.291564067381</v>
+        <v>1501.29156406738</v>
       </c>
     </row>
     <row r="3033" spans="1:2">
@@ -24703,7 +24703,7 @@
         <v>3045</v>
       </c>
       <c r="B3045">
-        <v>2015.19163036005</v>
+        <v>2015.191630360049</v>
       </c>
     </row>
     <row r="3046" spans="1:2">
@@ -24735,7 +24735,7 @@
         <v>3049</v>
       </c>
       <c r="B3049">
-        <v>1650.168720996958</v>
+        <v>1650.168720996957</v>
       </c>
     </row>
     <row r="3050" spans="1:2">
@@ -24943,7 +24943,7 @@
         <v>3075</v>
       </c>
       <c r="B3075">
-        <v>808.9639880169115</v>
+        <v>808.9639880169113</v>
       </c>
     </row>
     <row r="3076" spans="1:2">
@@ -24959,7 +24959,7 @@
         <v>3077</v>
       </c>
       <c r="B3077">
-        <v>609.8837621646462</v>
+        <v>609.8837621646461</v>
       </c>
     </row>
     <row r="3078" spans="1:2">
@@ -24967,7 +24967,7 @@
         <v>3078</v>
       </c>
       <c r="B3078">
-        <v>596.4435243316369</v>
+        <v>596.4435243316368</v>
       </c>
     </row>
     <row r="3079" spans="1:2">
@@ -24991,7 +24991,7 @@
         <v>3081</v>
       </c>
       <c r="B3081">
-        <v>661.6371768818532</v>
+        <v>661.6371768818531</v>
       </c>
     </row>
     <row r="3082" spans="1:2">
@@ -25015,7 +25015,7 @@
         <v>3084</v>
       </c>
       <c r="B3084">
-        <v>877.6569087687442</v>
+        <v>877.6569087687441</v>
       </c>
     </row>
     <row r="3085" spans="1:2">
@@ -25079,7 +25079,7 @@
         <v>3092</v>
       </c>
       <c r="B3092">
-        <v>920.1668629265724</v>
+        <v>920.1668629265722</v>
       </c>
     </row>
     <row r="3093" spans="1:2">
@@ -25167,7 +25167,7 @@
         <v>3103</v>
       </c>
       <c r="B3103">
-        <v>39.77296372776984</v>
+        <v>39.77296372776983</v>
       </c>
     </row>
     <row r="3104" spans="1:2">
@@ -25183,7 +25183,7 @@
         <v>3105</v>
       </c>
       <c r="B3105">
-        <v>202.2084661189365</v>
+        <v>202.2084661189364</v>
       </c>
     </row>
     <row r="3106" spans="1:2">
@@ -25207,7 +25207,7 @@
         <v>3108</v>
       </c>
       <c r="B3108">
-        <v>505.4654817999955</v>
+        <v>505.4654817999954</v>
       </c>
     </row>
     <row r="3109" spans="1:2">
@@ -25223,7 +25223,7 @@
         <v>3110</v>
       </c>
       <c r="B3110">
-        <v>649.9231274665592</v>
+        <v>649.9231274665591</v>
       </c>
     </row>
     <row r="3111" spans="1:2">
@@ -25255,7 +25255,7 @@
         <v>3114</v>
       </c>
       <c r="B3114">
-        <v>835.8591172348631</v>
+        <v>835.859117234863</v>
       </c>
     </row>
     <row r="3115" spans="1:2">
@@ -25263,7 +25263,7 @@
         <v>3115</v>
       </c>
       <c r="B3115">
-        <v>759.1301886029363</v>
+        <v>759.1301886029362</v>
       </c>
     </row>
     <row r="3116" spans="1:2">
@@ -25279,7 +25279,7 @@
         <v>3117</v>
       </c>
       <c r="B3117">
-        <v>662.3229631123207</v>
+        <v>662.3229631123206</v>
       </c>
     </row>
     <row r="3118" spans="1:2">
@@ -25335,7 +25335,7 @@
         <v>3124</v>
       </c>
       <c r="B3124">
-        <v>168.2594100714449</v>
+        <v>168.2594100714448</v>
       </c>
     </row>
     <row r="3125" spans="1:2">
@@ -25375,7 +25375,7 @@
         <v>3129</v>
       </c>
       <c r="B3129">
-        <v>197.6761225060388</v>
+        <v>197.6761225060387</v>
       </c>
     </row>
     <row r="3130" spans="1:2">
@@ -25439,7 +25439,7 @@
         <v>3137</v>
       </c>
       <c r="B3137">
-        <v>748.9928613756404</v>
+        <v>748.9928613756402</v>
       </c>
     </row>
     <row r="3138" spans="1:2">
@@ -25583,7 +25583,7 @@
         <v>3155</v>
       </c>
       <c r="B3155">
-        <v>363.9297543888854</v>
+        <v>363.9297543888853</v>
       </c>
     </row>
     <row r="3156" spans="1:2">
@@ -25607,7 +25607,7 @@
         <v>3158</v>
       </c>
       <c r="B3158">
-        <v>842.27444227116</v>
+        <v>842.2744422711598</v>
       </c>
     </row>
     <row r="3159" spans="1:2">
@@ -25615,7 +25615,7 @@
         <v>3159</v>
       </c>
       <c r="B3159">
-        <v>916.1898889319378</v>
+        <v>916.1898889319376</v>
       </c>
     </row>
     <row r="3160" spans="1:2">
@@ -25639,7 +25639,7 @@
         <v>3162</v>
       </c>
       <c r="B3162">
-        <v>992.666776470616</v>
+        <v>992.6667764706158</v>
       </c>
     </row>
     <row r="3163" spans="1:2">
@@ -25703,7 +25703,7 @@
         <v>3170</v>
       </c>
       <c r="B3170">
-        <v>79.1916045697981</v>
+        <v>79.19160456979809</v>
       </c>
     </row>
     <row r="3171" spans="1:2">
@@ -25775,7 +25775,7 @@
         <v>3179</v>
       </c>
       <c r="B3179">
-        <v>464.7051617429756</v>
+        <v>464.7051617429755</v>
       </c>
     </row>
     <row r="3180" spans="1:2">
@@ -25863,7 +25863,7 @@
         <v>3190</v>
       </c>
       <c r="B3190">
-        <v>812.387057748476</v>
+        <v>812.3870577484759</v>
       </c>
     </row>
     <row r="3191" spans="1:2">
@@ -25975,7 +25975,7 @@
         <v>3204</v>
       </c>
       <c r="B3204">
-        <v>714.4016866824418</v>
+        <v>714.4016866824417</v>
       </c>
     </row>
     <row r="3205" spans="1:2">
@@ -25983,7 +25983,7 @@
         <v>3205</v>
       </c>
       <c r="B3205">
-        <v>888.7291326093698</v>
+        <v>888.7291326093697</v>
       </c>
     </row>
     <row r="3206" spans="1:2">
@@ -26287,7 +26287,7 @@
         <v>3243</v>
       </c>
       <c r="B3243">
-        <v>290.5134077069478</v>
+        <v>290.5134077069477</v>
       </c>
     </row>
     <row r="3244" spans="1:2">
@@ -26319,7 +26319,7 @@
         <v>3247</v>
       </c>
       <c r="B3247">
-        <v>165.1349797282763</v>
+        <v>165.1349797282762</v>
       </c>
     </row>
     <row r="3248" spans="1:2">
@@ -26335,7 +26335,7 @@
         <v>3249</v>
       </c>
       <c r="B3249">
-        <v>407.8230038491951</v>
+        <v>407.823003849195</v>
       </c>
     </row>
     <row r="3250" spans="1:2">
@@ -26351,7 +26351,7 @@
         <v>3251</v>
       </c>
       <c r="B3251">
-        <v>800.3301152179482</v>
+        <v>800.3301152179481</v>
       </c>
     </row>
     <row r="3252" spans="1:2">
@@ -26471,7 +26471,7 @@
         <v>3266</v>
       </c>
       <c r="B3266">
-        <v>743.7996425705613</v>
+        <v>743.7996425705612</v>
       </c>
     </row>
     <row r="3267" spans="1:2">
@@ -26495,7 +26495,7 @@
         <v>3269</v>
       </c>
       <c r="B3269">
-        <v>565.6183124852366</v>
+        <v>565.6183124852365</v>
       </c>
     </row>
     <row r="3270" spans="1:2">
@@ -26519,7 +26519,7 @@
         <v>3272</v>
       </c>
       <c r="B3272">
-        <v>677.9348573418106</v>
+        <v>677.9348573418105</v>
       </c>
     </row>
     <row r="3273" spans="1:2">
@@ -26559,7 +26559,7 @@
         <v>3277</v>
       </c>
       <c r="B3277">
-        <v>1368.823454592453</v>
+        <v>1368.823454592452</v>
       </c>
     </row>
     <row r="3278" spans="1:2">
@@ -26567,7 +26567,7 @@
         <v>3278</v>
       </c>
       <c r="B3278">
-        <v>1519.866406497737</v>
+        <v>1519.866406497736</v>
       </c>
     </row>
     <row r="3279" spans="1:2">
@@ -26679,7 +26679,7 @@
         <v>3292</v>
       </c>
       <c r="B3292">
-        <v>907.3215593020456</v>
+        <v>907.3215593020454</v>
       </c>
     </row>
     <row r="3293" spans="1:2">
@@ -26687,7 +26687,7 @@
         <v>3293</v>
       </c>
       <c r="B3293">
-        <v>865.9135522495841</v>
+        <v>865.913552249584</v>
       </c>
     </row>
     <row r="3294" spans="1:2">
@@ -26711,7 +26711,7 @@
         <v>3296</v>
       </c>
       <c r="B3296">
-        <v>1007.165000753193</v>
+        <v>1007.165000753192</v>
       </c>
     </row>
     <row r="3297" spans="1:2">
@@ -26719,7 +26719,7 @@
         <v>3297</v>
       </c>
       <c r="B3297">
-        <v>1175.472767546017</v>
+        <v>1175.472767546016</v>
       </c>
     </row>
     <row r="3298" spans="1:2">
@@ -26903,7 +26903,7 @@
         <v>3320</v>
       </c>
       <c r="B3320">
-        <v>1117.12525445893</v>
+        <v>1117.125254458929</v>
       </c>
     </row>
     <row r="3321" spans="1:2">
@@ -27031,7 +27031,7 @@
         <v>3336</v>
       </c>
       <c r="B3336">
-        <v>781.0401794532585</v>
+        <v>781.0401794532584</v>
       </c>
     </row>
     <row r="3337" spans="1:2">
@@ -27215,7 +27215,7 @@
         <v>3359</v>
       </c>
       <c r="B3359">
-        <v>815.3793130532083</v>
+        <v>815.3793130532082</v>
       </c>
     </row>
     <row r="3360" spans="1:2">
@@ -27279,7 +27279,7 @@
         <v>3367</v>
       </c>
       <c r="B3367">
-        <v>523.5391727542407</v>
+        <v>523.5391727542406</v>
       </c>
     </row>
     <row r="3368" spans="1:2">
@@ -27295,7 +27295,7 @@
         <v>3369</v>
       </c>
       <c r="B3369">
-        <v>851.4006744150743</v>
+        <v>851.4006744150741</v>
       </c>
     </row>
     <row r="3370" spans="1:2">
@@ -27775,7 +27775,7 @@
         <v>3429</v>
       </c>
       <c r="B3429">
-        <v>858.484201419519</v>
+        <v>858.4842014195189</v>
       </c>
     </row>
     <row r="3430" spans="1:2">
@@ -27871,7 +27871,7 @@
         <v>3441</v>
       </c>
       <c r="B3441">
-        <v>43.04422266130777</v>
+        <v>43.04422266130776</v>
       </c>
     </row>
     <row r="3442" spans="1:2">
@@ -27919,7 +27919,7 @@
         <v>3447</v>
       </c>
       <c r="B3447">
-        <v>958.3452271329858</v>
+        <v>958.3452271329857</v>
       </c>
     </row>
     <row r="3448" spans="1:2">
@@ -27927,7 +27927,7 @@
         <v>3448</v>
       </c>
       <c r="B3448">
-        <v>1043.625968673051</v>
+        <v>1043.62596867305</v>
       </c>
     </row>
     <row r="3449" spans="1:2">
@@ -27991,7 +27991,7 @@
         <v>3456</v>
       </c>
       <c r="B3456">
-        <v>75.75681199668713</v>
+        <v>75.75681199668712</v>
       </c>
     </row>
     <row r="3457" spans="1:2">
@@ -28159,7 +28159,7 @@
         <v>3477</v>
       </c>
       <c r="B3477">
-        <v>857.5903347516019</v>
+        <v>857.5903347516017</v>
       </c>
     </row>
     <row r="3478" spans="1:2">
@@ -28191,7 +28191,7 @@
         <v>3481</v>
       </c>
       <c r="B3481">
-        <v>351.2925312018082</v>
+        <v>351.2925312018081</v>
       </c>
     </row>
     <row r="3482" spans="1:2">
@@ -28367,7 +28367,7 @@
         <v>3503</v>
       </c>
       <c r="B3503">
-        <v>2341.655183166469</v>
+        <v>2341.655183166468</v>
       </c>
     </row>
     <row r="3504" spans="1:2">
@@ -28439,7 +28439,7 @@
         <v>3512</v>
       </c>
       <c r="B3512">
-        <v>2389.792101266595</v>
+        <v>2389.792101266594</v>
       </c>
     </row>
     <row r="3513" spans="1:2">
@@ -28463,7 +28463,7 @@
         <v>3515</v>
       </c>
       <c r="B3515">
-        <v>2655.123966118644</v>
+        <v>2655.123966118643</v>
       </c>
     </row>
     <row r="3516" spans="1:2">
@@ -28471,7 +28471,7 @@
         <v>3516</v>
       </c>
       <c r="B3516">
-        <v>2795.575330686707</v>
+        <v>2795.575330686706</v>
       </c>
     </row>
     <row r="3517" spans="1:2">
@@ -28559,7 +28559,7 @@
         <v>3527</v>
       </c>
       <c r="B3527">
-        <v>2553.135244664496</v>
+        <v>2553.135244664495</v>
       </c>
     </row>
     <row r="3528" spans="1:2">
@@ -28687,7 +28687,7 @@
         <v>3543</v>
       </c>
       <c r="B3543">
-        <v>2943.283134172025</v>
+        <v>2943.283134172024</v>
       </c>
     </row>
     <row r="3544" spans="1:2">
@@ -28863,7 +28863,7 @@
         <v>3565</v>
       </c>
       <c r="B3565">
-        <v>2715.997751558992</v>
+        <v>2715.997751558991</v>
       </c>
     </row>
     <row r="3566" spans="1:2">
@@ -28887,7 +28887,7 @@
         <v>3568</v>
       </c>
       <c r="B3568">
-        <v>2714.47671286834</v>
+        <v>2714.476712868339</v>
       </c>
     </row>
     <row r="3569" spans="1:2">
@@ -28959,7 +28959,7 @@
         <v>3577</v>
       </c>
       <c r="B3577">
-        <v>1930.94542958646</v>
+        <v>1930.945429586459</v>
       </c>
     </row>
     <row r="3578" spans="1:2">
@@ -29247,7 +29247,7 @@
         <v>3613</v>
       </c>
       <c r="B3613">
-        <v>1975.958210414456</v>
+        <v>1975.958210414455</v>
       </c>
     </row>
     <row r="3614" spans="1:2">
@@ -29279,7 +29279,7 @@
         <v>3617</v>
       </c>
       <c r="B3617">
-        <v>2117.379640120488</v>
+        <v>2117.379640120487</v>
       </c>
     </row>
     <row r="3618" spans="1:2">
@@ -29351,7 +29351,7 @@
         <v>3626</v>
       </c>
       <c r="B3626">
-        <v>1354.055604954308</v>
+        <v>1354.055604954307</v>
       </c>
     </row>
     <row r="3627" spans="1:2">
@@ -29583,7 +29583,7 @@
         <v>3655</v>
       </c>
       <c r="B3655">
-        <v>1763.379132521449</v>
+        <v>1763.379132521448</v>
       </c>
     </row>
     <row r="3656" spans="1:2">
@@ -29631,7 +29631,7 @@
         <v>3661</v>
       </c>
       <c r="B3661">
-        <v>2597.221921010322</v>
+        <v>2597.221921010321</v>
       </c>
     </row>
     <row r="3662" spans="1:2">
@@ -29655,7 +29655,7 @@
         <v>3664</v>
       </c>
       <c r="B3664">
-        <v>2944.601953846001</v>
+        <v>2944.601953846</v>
       </c>
     </row>
     <row r="3665" spans="1:2">
@@ -29671,7 +29671,7 @@
         <v>3666</v>
       </c>
       <c r="B3666">
-        <v>2990.438264292636</v>
+        <v>2990.438264292635</v>
       </c>
     </row>
     <row r="3667" spans="1:2">
@@ -29767,7 +29767,7 @@
         <v>3678</v>
       </c>
       <c r="B3678">
-        <v>2620.028709238948</v>
+        <v>2620.028709238947</v>
       </c>
     </row>
     <row r="3679" spans="1:2">
@@ -29775,7 +29775,7 @@
         <v>3679</v>
       </c>
       <c r="B3679">
-        <v>2668.640402421705</v>
+        <v>2668.640402421704</v>
       </c>
     </row>
     <row r="3680" spans="1:2">
@@ -30223,7 +30223,7 @@
         <v>3735</v>
       </c>
       <c r="B3735">
-        <v>3315.160975129406</v>
+        <v>3315.160975129405</v>
       </c>
     </row>
     <row r="3736" spans="1:2">
@@ -30303,7 +30303,7 @@
         <v>3745</v>
       </c>
       <c r="B3745">
-        <v>2330.524345118111</v>
+        <v>2330.52434511811</v>
       </c>
     </row>
     <row r="3746" spans="1:2">
@@ -30447,7 +30447,7 @@
         <v>3763</v>
       </c>
       <c r="B3763">
-        <v>3033.842085118381</v>
+        <v>3033.84208511838</v>
       </c>
     </row>
     <row r="3764" spans="1:2">
@@ -30487,7 +30487,7 @@
         <v>3768</v>
       </c>
       <c r="B3768">
-        <v>2526.940555228945</v>
+        <v>2526.940555228944</v>
       </c>
     </row>
     <row r="3769" spans="1:2">
@@ -30623,7 +30623,7 @@
         <v>3785</v>
       </c>
       <c r="B3785">
-        <v>2764.19328386685</v>
+        <v>2764.193283866849</v>
       </c>
     </row>
     <row r="3786" spans="1:2">
@@ -30679,7 +30679,7 @@
         <v>3792</v>
       </c>
       <c r="B3792">
-        <v>1966.489085155308</v>
+        <v>1966.489085155307</v>
       </c>
     </row>
     <row r="3793" spans="1:2">
@@ -30711,7 +30711,7 @@
         <v>3796</v>
       </c>
       <c r="B3796">
-        <v>1601.554097103814</v>
+        <v>1601.554097103813</v>
       </c>
     </row>
     <row r="3797" spans="1:2">
@@ -30847,7 +30847,7 @@
         <v>3813</v>
       </c>
       <c r="B3813">
-        <v>2343.202598250601</v>
+        <v>2343.2025982506</v>
       </c>
     </row>
     <row r="3814" spans="1:2">
@@ -30919,7 +30919,7 @@
         <v>3822</v>
       </c>
       <c r="B3822">
-        <v>1771.596844445513</v>
+        <v>1771.596844445512</v>
       </c>
     </row>
     <row r="3823" spans="1:2">
@@ -30943,7 +30943,7 @@
         <v>3825</v>
       </c>
       <c r="B3825">
-        <v>1978.997357085374</v>
+        <v>1978.997357085373</v>
       </c>
     </row>
     <row r="3826" spans="1:2">
@@ -31015,7 +31015,7 @@
         <v>3834</v>
       </c>
       <c r="B3834">
-        <v>2606.987048018518</v>
+        <v>2606.987048018517</v>
       </c>
     </row>
     <row r="3835" spans="1:2">
@@ -31071,7 +31071,7 @@
         <v>3841</v>
       </c>
       <c r="B3841">
-        <v>1889.030409637114</v>
+        <v>1889.030409637113</v>
       </c>
     </row>
     <row r="3842" spans="1:2">
@@ -31079,7 +31079,7 @@
         <v>3842</v>
       </c>
       <c r="B3842">
-        <v>1789.989982831899</v>
+        <v>1789.989982831898</v>
       </c>
     </row>
     <row r="3843" spans="1:2">
@@ -31119,7 +31119,7 @@
         <v>3847</v>
       </c>
       <c r="B3847">
-        <v>1769.656714169575</v>
+        <v>1769.656714169574</v>
       </c>
     </row>
     <row r="3848" spans="1:2">
@@ -31303,7 +31303,7 @@
         <v>3870</v>
       </c>
       <c r="B3870">
-        <v>1972.535140682891</v>
+        <v>1972.53514068289</v>
       </c>
     </row>
     <row r="3871" spans="1:2">
@@ -31399,7 +31399,7 @@
         <v>3882</v>
       </c>
       <c r="B3882">
-        <v>2747.705107231763</v>
+        <v>2747.705107231762</v>
       </c>
     </row>
     <row r="3883" spans="1:2">
@@ -31599,7 +31599,7 @@
         <v>3907</v>
       </c>
       <c r="B3907">
-        <v>2423.339943062159</v>
+        <v>2423.339943062158</v>
       </c>
     </row>
     <row r="3908" spans="1:2">
@@ -31615,7 +31615,7 @@
         <v>3909</v>
       </c>
       <c r="B3909">
-        <v>2145.089506825918</v>
+        <v>2145.089506825917</v>
       </c>
     </row>
     <row r="3910" spans="1:2">
@@ -31655,7 +31655,7 @@
         <v>3914</v>
       </c>
       <c r="B3914">
-        <v>1192.646730411572</v>
+        <v>1192.646730411571</v>
       </c>
     </row>
     <row r="3915" spans="1:2">
@@ -31671,7 +31671,7 @@
         <v>3916</v>
       </c>
       <c r="B3916">
-        <v>950.3502491983044</v>
+        <v>950.350249198304</v>
       </c>
     </row>
     <row r="3917" spans="1:2">
@@ -31703,7 +31703,7 @@
         <v>3920</v>
       </c>
       <c r="B3920">
-        <v>1072.232632756785</v>
+        <v>1072.232632756784</v>
       </c>
     </row>
     <row r="3921" spans="1:2">
@@ -31775,7 +31775,7 @@
         <v>3929</v>
       </c>
       <c r="B3929">
-        <v>1870.364715184773</v>
+        <v>1870.364715184772</v>
       </c>
     </row>
     <row r="3930" spans="1:2">
@@ -31847,7 +31847,7 @@
         <v>3938</v>
       </c>
       <c r="B3938">
-        <v>779.9235787959587</v>
+        <v>779.9235787959586</v>
       </c>
     </row>
     <row r="3939" spans="1:2">
@@ -31991,7 +31991,7 @@
         <v>3956</v>
       </c>
       <c r="B3956">
-        <v>1356.617045832208</v>
+        <v>1356.617045832207</v>
       </c>
     </row>
     <row r="3957" spans="1:2">
@@ -32071,7 +32071,7 @@
         <v>3966</v>
       </c>
       <c r="B3966">
-        <v>336.9144660450826</v>
+        <v>336.9144660450825</v>
       </c>
     </row>
     <row r="3967" spans="1:2">
@@ -32087,7 +32087,7 @@
         <v>3968</v>
       </c>
       <c r="B3968">
-        <v>578.8504698807964</v>
+        <v>578.8504698807963</v>
       </c>
     </row>
     <row r="3969" spans="1:2">
@@ -32391,7 +32391,7 @@
         <v>4006</v>
       </c>
       <c r="B4006">
-        <v>1611.257679193891</v>
+        <v>1611.25767919389</v>
       </c>
     </row>
     <row r="4007" spans="1:2">
@@ -32399,7 +32399,7 @@
         <v>4007</v>
       </c>
       <c r="B4007">
-        <v>1471.700181293745</v>
+        <v>1471.700181293744</v>
       </c>
     </row>
     <row r="4008" spans="1:2">
@@ -32407,7 +32407,7 @@
         <v>4008</v>
       </c>
       <c r="B4008">
-        <v>1346.344905927128</v>
+        <v>1346.344905927127</v>
       </c>
     </row>
     <row r="4009" spans="1:2">
@@ -32687,7 +32687,7 @@
         <v>4043</v>
       </c>
       <c r="B4043">
-        <v>2004.594181602056</v>
+        <v>2004.594181602055</v>
       </c>
     </row>
     <row r="4044" spans="1:2">
@@ -32951,7 +32951,7 @@
         <v>4076</v>
       </c>
       <c r="B4076">
-        <v>2802.415608729063</v>
+        <v>2802.415608729062</v>
       </c>
     </row>
     <row r="4077" spans="1:2">
@@ -33415,7 +33415,7 @@
         <v>4134</v>
       </c>
       <c r="B4134">
-        <v>1724.59118055462</v>
+        <v>1724.591180554619</v>
       </c>
     </row>
     <row r="4135" spans="1:2">
@@ -33551,7 +33551,7 @@
         <v>4151</v>
       </c>
       <c r="B4151">
-        <v>2211.326492273769</v>
+        <v>2211.326492273768</v>
       </c>
     </row>
     <row r="4152" spans="1:2">
@@ -33583,7 +33583,7 @@
         <v>4155</v>
       </c>
       <c r="B4155">
-        <v>1802.879247112225</v>
+        <v>1802.879247112224</v>
       </c>
     </row>
     <row r="4156" spans="1:2">
@@ -33607,7 +33607,7 @@
         <v>4158</v>
       </c>
       <c r="B4158">
-        <v>1769.838418213545</v>
+        <v>1769.838418213544</v>
       </c>
     </row>
     <row r="4159" spans="1:2">
@@ -33663,7 +33663,7 @@
         <v>4165</v>
       </c>
       <c r="B4165">
-        <v>2153.755617439134</v>
+        <v>2153.755617439133</v>
       </c>
     </row>
     <row r="4166" spans="1:2">
@@ -33695,7 +33695,7 @@
         <v>4169</v>
       </c>
       <c r="B4169">
-        <v>2235.056454274178</v>
+        <v>2235.056454274177</v>
       </c>
     </row>
     <row r="4170" spans="1:2">
@@ -33751,7 +33751,7 @@
         <v>4176</v>
       </c>
       <c r="B4176">
-        <v>1414.905944711563</v>
+        <v>1414.905944711562</v>
       </c>
     </row>
     <row r="4177" spans="1:2">
@@ -33767,7 +33767,7 @@
         <v>4178</v>
       </c>
       <c r="B4178">
-        <v>1190.894165600377</v>
+        <v>1190.894165600376</v>
       </c>
     </row>
     <row r="4179" spans="1:2">
@@ -33975,7 +33975,7 @@
         <v>4204</v>
       </c>
       <c r="B4204">
-        <v>865.8373537795321</v>
+        <v>865.837353779532</v>
       </c>
     </row>
     <row r="4205" spans="1:2">
@@ -34007,7 +34007,7 @@
         <v>4208</v>
       </c>
       <c r="B4208">
-        <v>1044.695677964165</v>
+        <v>1044.695677964164</v>
       </c>
     </row>
     <row r="4209" spans="1:2">
@@ -34247,7 +34247,7 @@
         <v>4238</v>
       </c>
       <c r="B4238">
-        <v>2369.787072167572</v>
+        <v>2369.787072167571</v>
       </c>
     </row>
     <row r="4239" spans="1:2">
@@ -34271,7 +34271,7 @@
         <v>4241</v>
       </c>
       <c r="B4241">
-        <v>2667.391919797008</v>
+        <v>2667.391919797007</v>
       </c>
     </row>
     <row r="4242" spans="1:2">
@@ -34359,7 +34359,7 @@
         <v>4252</v>
       </c>
       <c r="B4252">
-        <v>2478.862251336551</v>
+        <v>2478.86225133655</v>
       </c>
     </row>
     <row r="4253" spans="1:2">
@@ -34407,7 +34407,7 @@
         <v>4258</v>
       </c>
       <c r="B4258">
-        <v>3003.186854474404</v>
+        <v>3003.186854474403</v>
       </c>
     </row>
     <row r="4259" spans="1:2">
@@ -34439,7 +34439,7 @@
         <v>4262</v>
       </c>
       <c r="B4262">
-        <v>3521.570907658592</v>
+        <v>3521.570907658591</v>
       </c>
     </row>
     <row r="4263" spans="1:2">
@@ -34567,7 +34567,7 @@
         <v>4278</v>
       </c>
       <c r="B4278">
-        <v>3113.147108180141</v>
+        <v>3113.14710818014</v>
       </c>
     </row>
     <row r="4279" spans="1:2">
@@ -34727,7 +34727,7 @@
         <v>4298</v>
       </c>
       <c r="B4298">
-        <v>2965.497918902555</v>
+        <v>2965.497918902554</v>
       </c>
     </row>
     <row r="4299" spans="1:2">
@@ -34815,7 +34815,7 @@
         <v>4309</v>
       </c>
       <c r="B4309">
-        <v>3466.737316325054</v>
+        <v>3466.737316325053</v>
       </c>
     </row>
     <row r="4310" spans="1:2">
@@ -34887,7 +34887,7 @@
         <v>4318</v>
       </c>
       <c r="B4318">
-        <v>3220.792100680453</v>
+        <v>3220.792100680452</v>
       </c>
     </row>
     <row r="4319" spans="1:2">
@@ -34895,7 +34895,7 @@
         <v>4319</v>
       </c>
       <c r="B4319">
-        <v>3069.801901562128</v>
+        <v>3069.801901562127</v>
       </c>
     </row>
     <row r="4320" spans="1:2">
@@ -34903,7 +34903,7 @@
         <v>4320</v>
       </c>
       <c r="B4320">
-        <v>2915.541029652342</v>
+        <v>2915.541029652341</v>
       </c>
     </row>
     <row r="4321" spans="1:2">
@@ -35047,7 +35047,7 @@
         <v>4338</v>
       </c>
       <c r="B4338">
-        <v>3447.629084604334</v>
+        <v>3447.629084604333</v>
       </c>
     </row>
     <row r="4339" spans="1:2">
@@ -35063,7 +35063,7 @@
         <v>4340</v>
       </c>
       <c r="B4340">
-        <v>3292.887576191144</v>
+        <v>3292.887576191143</v>
       </c>
     </row>
     <row r="4341" spans="1:2">
@@ -35095,7 +35095,7 @@
         <v>4344</v>
       </c>
       <c r="B4344">
-        <v>2743.265080996044</v>
+        <v>2743.265080996043</v>
       </c>
     </row>
     <row r="4345" spans="1:2">
@@ -35135,7 +35135,7 @@
         <v>4349</v>
       </c>
       <c r="B4349">
-        <v>2301.40480671672</v>
+        <v>2301.404806716719</v>
       </c>
     </row>
     <row r="4350" spans="1:2">
@@ -35263,7 +35263,7 @@
         <v>4365</v>
       </c>
       <c r="B4365">
-        <v>3169.592590226316</v>
+        <v>3169.592590226315</v>
       </c>
     </row>
     <row r="4366" spans="1:2">
@@ -35303,7 +35303,7 @@
         <v>4370</v>
       </c>
       <c r="B4370">
-        <v>2657.588693553786</v>
+        <v>2657.588693553785</v>
       </c>
     </row>
     <row r="4371" spans="1:2">
@@ -35375,7 +35375,7 @@
         <v>4379</v>
       </c>
       <c r="B4379">
-        <v>3136.12387761119</v>
+        <v>3136.123877611189</v>
       </c>
     </row>
     <row r="4380" spans="1:2">
@@ -35423,7 +35423,7 @@
         <v>4385</v>
       </c>
       <c r="B4385">
-        <v>3627.310938407605</v>
+        <v>3627.310938407604</v>
       </c>
     </row>
     <row r="4386" spans="1:2">
@@ -35471,7 +35471,7 @@
         <v>4391</v>
       </c>
       <c r="B4391">
-        <v>3436.082085681077</v>
+        <v>3436.082085681076</v>
       </c>
     </row>
     <row r="4392" spans="1:2">
@@ -35527,7 +35527,7 @@
         <v>4398</v>
       </c>
       <c r="B4398">
-        <v>3262.642645001293</v>
+        <v>3262.642645001292</v>
       </c>
     </row>
     <row r="4399" spans="1:2">
@@ -35583,7 +35583,7 @@
         <v>4405</v>
       </c>
       <c r="B4405">
-        <v>3683.463349415119</v>
+        <v>3683.463349415118</v>
       </c>
     </row>
     <row r="4406" spans="1:2">
@@ -35615,7 +35615,7 @@
         <v>4409</v>
       </c>
       <c r="B4409">
-        <v>3817.250278564023</v>
+        <v>3817.250278564022</v>
       </c>
     </row>
     <row r="4410" spans="1:2">
@@ -36159,7 +36159,7 @@
         <v>4477</v>
       </c>
       <c r="B4477">
-        <v>2651.308181195273</v>
+        <v>2651.308181195272</v>
       </c>
     </row>
     <row r="4478" spans="1:2">
@@ -36295,7 +36295,7 @@
         <v>4494</v>
       </c>
       <c r="B4494">
-        <v>1953.781524918952</v>
+        <v>1953.781524918951</v>
       </c>
     </row>
     <row r="4495" spans="1:2">
@@ -36303,7 +36303,7 @@
         <v>4495</v>
       </c>
       <c r="B4495">
-        <v>1993.674354701534</v>
+        <v>1993.674354701533</v>
       </c>
     </row>
     <row r="4496" spans="1:2">
@@ -36335,7 +36335,7 @@
         <v>4499</v>
       </c>
       <c r="B4499">
-        <v>2459.657306173073</v>
+        <v>2459.657306173072</v>
       </c>
     </row>
     <row r="4500" spans="1:2">
@@ -36359,7 +36359,7 @@
         <v>4502</v>
       </c>
       <c r="B4502">
-        <v>2859.49119350836</v>
+        <v>2859.491193508359</v>
       </c>
     </row>
     <row r="4503" spans="1:2">
@@ -36431,7 +36431,7 @@
         <v>4511</v>
       </c>
       <c r="B4511">
-        <v>2454.631137860031</v>
+        <v>2454.63113786003</v>
       </c>
     </row>
     <row r="4512" spans="1:2">
@@ -36479,7 +36479,7 @@
         <v>4517</v>
       </c>
       <c r="B4517">
-        <v>1958.130699132686</v>
+        <v>1958.130699132685</v>
       </c>
     </row>
     <row r="4518" spans="1:2">
@@ -36487,7 +36487,7 @@
         <v>4518</v>
       </c>
       <c r="B4518">
-        <v>1958.183451919645</v>
+        <v>1958.183451919644</v>
       </c>
     </row>
     <row r="4519" spans="1:2">
@@ -36567,7 +36567,7 @@
         <v>4528</v>
       </c>
       <c r="B4528">
-        <v>3090.111724541359</v>
+        <v>3090.111724541358</v>
       </c>
     </row>
     <row r="4529" spans="1:2">
@@ -36623,7 +36623,7 @@
         <v>4535</v>
       </c>
       <c r="B4535">
-        <v>2708.612361384726</v>
+        <v>2708.612361384725</v>
       </c>
     </row>
     <row r="4536" spans="1:2">
@@ -36775,7 +36775,7 @@
         <v>4554</v>
       </c>
       <c r="B4554">
-        <v>3241.746679944739</v>
+        <v>3241.746679944738</v>
       </c>
     </row>
     <row r="4555" spans="1:2">
@@ -36999,7 +36999,7 @@
         <v>4582</v>
       </c>
       <c r="B4582">
-        <v>3096.47136608031</v>
+        <v>3096.471366080309</v>
       </c>
     </row>
     <row r="4583" spans="1:2">
@@ -37023,7 +37023,7 @@
         <v>4585</v>
       </c>
       <c r="B4585">
-        <v>2800.308427961088</v>
+        <v>2800.308427961087</v>
       </c>
     </row>
     <row r="4586" spans="1:2">
@@ -37063,7 +37063,7 @@
         <v>4590</v>
       </c>
       <c r="B4590">
-        <v>2568.796960970558</v>
+        <v>2568.796960970557</v>
       </c>
     </row>
     <row r="4591" spans="1:2">
@@ -37167,7 +37167,7 @@
         <v>4603</v>
       </c>
       <c r="B4603">
-        <v>3220.792100680453</v>
+        <v>3220.792100680452</v>
       </c>
     </row>
     <row r="4604" spans="1:2">
@@ -37223,7 +37223,7 @@
         <v>4610</v>
       </c>
       <c r="B4610">
-        <v>2603.710513806284</v>
+        <v>2603.710513806283</v>
       </c>
     </row>
     <row r="4611" spans="1:2">
@@ -37263,7 +37263,7 @@
         <v>4615</v>
       </c>
       <c r="B4615">
-        <v>2461.151968470246</v>
+        <v>2461.151968470245</v>
       </c>
     </row>
     <row r="4616" spans="1:2">
@@ -37279,7 +37279,7 @@
         <v>4617</v>
       </c>
       <c r="B4617">
-        <v>2579.186329291103</v>
+        <v>2579.186329291102</v>
       </c>
     </row>
     <row r="4618" spans="1:2">
@@ -37351,7 +37351,7 @@
         <v>4626</v>
       </c>
       <c r="B4626">
-        <v>2783.072920177414</v>
+        <v>2783.072920177413</v>
       </c>
     </row>
     <row r="4627" spans="1:2">
@@ -37391,7 +37391,7 @@
         <v>4631</v>
       </c>
       <c r="B4631">
-        <v>2252.083881620402</v>
+        <v>2252.083881620401</v>
       </c>
     </row>
     <row r="4632" spans="1:2">
@@ -37479,7 +37479,7 @@
         <v>4642</v>
       </c>
       <c r="B4642">
-        <v>2241.36334302617</v>
+        <v>2241.363343026169</v>
       </c>
     </row>
     <row r="4643" spans="1:2">
@@ -37639,7 +37639,7 @@
         <v>4662</v>
       </c>
       <c r="B4662">
-        <v>2463.67531011312</v>
+        <v>2463.675310113119</v>
       </c>
     </row>
     <row r="4663" spans="1:2">
@@ -37679,7 +37679,7 @@
         <v>4667</v>
       </c>
       <c r="B4667">
-        <v>3060.277092805634</v>
+        <v>3060.277092805633</v>
       </c>
     </row>
     <row r="4668" spans="1:2">
@@ -37695,7 +37695,7 @@
         <v>4669</v>
       </c>
       <c r="B4669">
-        <v>3360.235300875521</v>
+        <v>3360.23530087552</v>
       </c>
     </row>
     <row r="4670" spans="1:2">
@@ -37711,7 +37711,7 @@
         <v>4671</v>
       </c>
       <c r="B4671">
-        <v>3603.982483730162</v>
+        <v>3603.982483730161</v>
       </c>
     </row>
     <row r="4672" spans="1:2">
@@ -37767,7 +37767,7 @@
         <v>4678</v>
       </c>
       <c r="B4678">
-        <v>3454.721403739939</v>
+        <v>3454.721403739938</v>
       </c>
     </row>
     <row r="4679" spans="1:2">
@@ -37823,7 +37823,7 @@
         <v>4685</v>
       </c>
       <c r="B4685">
-        <v>3050.693669841408</v>
+        <v>3050.693669841407</v>
       </c>
     </row>
     <row r="4686" spans="1:2">
@@ -37983,7 +37983,7 @@
         <v>4705</v>
       </c>
       <c r="B4705">
-        <v>3286.821005690854</v>
+        <v>3286.821005690853</v>
       </c>
     </row>
     <row r="4706" spans="1:2">
@@ -38063,7 +38063,7 @@
         <v>4715</v>
       </c>
       <c r="B4715">
-        <v>3481.390868258121</v>
+        <v>3481.39086825812</v>
       </c>
     </row>
     <row r="4716" spans="1:2">
@@ -38111,7 +38111,7 @@
         <v>4721</v>
       </c>
       <c r="B4721">
-        <v>3840.344276410537</v>
+        <v>3840.344276410536</v>
       </c>
     </row>
     <row r="4722" spans="1:2">
@@ -38119,7 +38119,7 @@
         <v>4722</v>
       </c>
       <c r="B4722">
-        <v>3836.182667661546</v>
+        <v>3836.182667661545</v>
       </c>
     </row>
     <row r="4723" spans="1:2">
@@ -38143,7 +38143,7 @@
         <v>4725</v>
       </c>
       <c r="B4725">
-        <v>3538.246649758422</v>
+        <v>3538.246649758421</v>
       </c>
     </row>
     <row r="4726" spans="1:2">
@@ -38367,7 +38367,7 @@
         <v>4753</v>
       </c>
       <c r="B4753">
-        <v>2414.978626329151</v>
+        <v>2414.97862632915</v>
       </c>
     </row>
     <row r="4754" spans="1:2">
@@ -38671,7 +38671,7 @@
         <v>4791</v>
       </c>
       <c r="B4791">
-        <v>2870.745121392956</v>
+        <v>2870.745121392955</v>
       </c>
     </row>
     <row r="4792" spans="1:2">
@@ -38687,7 +38687,7 @@
         <v>4793</v>
       </c>
       <c r="B4793">
-        <v>2952.397643474393</v>
+        <v>2952.397643474392</v>
       </c>
     </row>
     <row r="4794" spans="1:2">
@@ -38711,7 +38711,7 @@
         <v>4796</v>
       </c>
       <c r="B4796">
-        <v>2746.41852537204</v>
+        <v>2746.418525372039</v>
       </c>
     </row>
     <row r="4797" spans="1:2">
@@ -38791,7 +38791,7 @@
         <v>4806</v>
       </c>
       <c r="B4806">
-        <v>1960.120651485197</v>
+        <v>1960.120651485196</v>
       </c>
     </row>
     <row r="4807" spans="1:2">
@@ -38967,7 +38967,7 @@
         <v>4828</v>
       </c>
       <c r="B4828">
-        <v>1792.044410812915</v>
+        <v>1792.044410812914</v>
       </c>
     </row>
     <row r="4829" spans="1:2">
@@ -39239,7 +39239,7 @@
         <v>4862</v>
       </c>
       <c r="B4862">
-        <v>3198.342859118994</v>
+        <v>3198.342859118993</v>
       </c>
     </row>
     <row r="4863" spans="1:2">
@@ -39247,7 +39247,7 @@
         <v>4863</v>
       </c>
       <c r="B4863">
-        <v>3219.238824175548</v>
+        <v>3219.238824175547</v>
       </c>
     </row>
     <row r="4864" spans="1:2">
@@ -39263,7 +39263,7 @@
         <v>4865</v>
       </c>
       <c r="B4865">
-        <v>3258.832721498696</v>
+        <v>3258.832721498695</v>
       </c>
     </row>
     <row r="4866" spans="1:2">
@@ -39271,7 +39271,7 @@
         <v>4866</v>
       </c>
       <c r="B4866">
-        <v>3239.490032947047</v>
+        <v>3239.490032947046</v>
       </c>
     </row>
     <row r="4867" spans="1:2">
@@ -39335,7 +39335,7 @@
         <v>4874</v>
       </c>
       <c r="B4874">
-        <v>2536.315897755721</v>
+        <v>2536.31589775572</v>
       </c>
     </row>
     <row r="4875" spans="1:2">
@@ -39375,7 +39375,7 @@
         <v>4879</v>
       </c>
       <c r="B4879">
-        <v>2464.812425743126</v>
+        <v>2464.812425743125</v>
       </c>
     </row>
     <row r="4880" spans="1:2">
@@ -39543,7 +39543,7 @@
         <v>4900</v>
       </c>
       <c r="B4900">
-        <v>2174.52849265945</v>
+        <v>2174.528492659449</v>
       </c>
     </row>
     <row r="4901" spans="1:2">
@@ -39615,7 +39615,7 @@
         <v>4909</v>
       </c>
       <c r="B4909">
-        <v>2803.878033211983</v>
+        <v>2803.878033211982</v>
       </c>
     </row>
     <row r="4910" spans="1:2">
@@ -39831,7 +39831,7 @@
         <v>4936</v>
       </c>
       <c r="B4936">
-        <v>3507.474190698981</v>
+        <v>3507.47419069898</v>
       </c>
     </row>
     <row r="4937" spans="1:2">
@@ -39911,7 +39911,7 @@
         <v>4946</v>
       </c>
       <c r="B4946">
-        <v>3137.852996739292</v>
+        <v>3137.852996739291</v>
       </c>
     </row>
     <row r="4947" spans="1:2">
@@ -39967,7 +39967,7 @@
         <v>4953</v>
       </c>
       <c r="B4953">
-        <v>3203.764673334229</v>
+        <v>3203.764673334228</v>
       </c>
     </row>
     <row r="4954" spans="1:2">
@@ -40103,7 +40103,7 @@
         <v>4970</v>
       </c>
       <c r="B4970">
-        <v>3200.071978247096</v>
+        <v>3200.071978247095</v>
       </c>
     </row>
     <row r="4971" spans="1:2">
@@ -40367,7 +40367,7 @@
         <v>5003</v>
       </c>
       <c r="B5003">
-        <v>3396.429574150197</v>
+        <v>3396.429574150196</v>
       </c>
     </row>
     <row r="5004" spans="1:2">
@@ -40527,7 +40527,7 @@
         <v>5023</v>
       </c>
       <c r="B5023">
-        <v>3175.717774934338</v>
+        <v>3175.717774934337</v>
       </c>
     </row>
     <row r="5024" spans="1:2">
@@ -40567,7 +40567,7 @@
         <v>5028</v>
       </c>
       <c r="B5028">
-        <v>3679.829268535718</v>
+        <v>3679.829268535717</v>
       </c>
     </row>
     <row r="5029" spans="1:2">
@@ -40631,7 +40631,7 @@
         <v>5036</v>
       </c>
       <c r="B5036">
-        <v>3929.291336644255</v>
+        <v>3929.291336644254</v>
       </c>
     </row>
     <row r="5037" spans="1:2">
@@ -40727,7 +40727,7 @@
         <v>5048</v>
       </c>
       <c r="B5048">
-        <v>3213.406710506187</v>
+        <v>3213.406710506186</v>
       </c>
     </row>
     <row r="5049" spans="1:2">
@@ -40735,7 +40735,7 @@
         <v>5049</v>
       </c>
       <c r="B5049">
-        <v>3303.789818829346</v>
+        <v>3303.789818829345</v>
       </c>
     </row>
     <row r="5050" spans="1:2">
@@ -40911,7 +40911,7 @@
         <v>5071</v>
       </c>
       <c r="B5071">
-        <v>3264.195921506198</v>
+        <v>3264.195921506197</v>
       </c>
     </row>
     <row r="5072" spans="1:2">
@@ -41135,7 +41135,7 @@
         <v>5099</v>
       </c>
       <c r="B5099">
-        <v>3949.483931208022</v>
+        <v>3949.483931208021</v>
       </c>
     </row>
     <row r="5100" spans="1:2">
@@ -41151,7 +41151,7 @@
         <v>5101</v>
       </c>
       <c r="B5101">
-        <v>4208.207044138258</v>
+        <v>4208.207044138257</v>
       </c>
     </row>
     <row r="5102" spans="1:2">
@@ -41183,7 +41183,7 @@
         <v>5105</v>
       </c>
       <c r="B5105">
-        <v>4464.028753785746</v>
+        <v>4464.028753785745</v>
       </c>
     </row>
     <row r="5106" spans="1:2">
@@ -41255,7 +41255,7 @@
         <v>5114</v>
       </c>
       <c r="B5114">
-        <v>3694.951734130643</v>
+        <v>3694.951734130642</v>
       </c>
     </row>
     <row r="5115" spans="1:2">
@@ -41527,7 +41527,7 @@
         <v>5148</v>
       </c>
       <c r="B5148">
-        <v>3798.3178894665</v>
+        <v>3798.317889466499</v>
       </c>
     </row>
     <row r="5149" spans="1:2">
@@ -41575,7 +41575,7 @@
         <v>5154</v>
       </c>
       <c r="B5154">
-        <v>4059.268342290562</v>
+        <v>4059.268342290561</v>
       </c>
     </row>
     <row r="5155" spans="1:2">
@@ -41599,7 +41599,7 @@
         <v>5157</v>
       </c>
       <c r="B5157">
-        <v>3814.026497138748</v>
+        <v>3814.026497138747</v>
       </c>
     </row>
     <row r="5158" spans="1:2">
@@ -41647,7 +41647,7 @@
         <v>5163</v>
       </c>
       <c r="B5163">
-        <v>3052.364174761778</v>
+        <v>3052.364174761777</v>
       </c>
     </row>
     <row r="5164" spans="1:2">
@@ -41655,7 +41655,7 @@
         <v>5164</v>
       </c>
       <c r="B5164">
-        <v>2939.121525423034</v>
+        <v>2939.121525423033</v>
       </c>
     </row>
     <row r="5165" spans="1:2">
@@ -41703,7 +41703,7 @@
         <v>5170</v>
       </c>
       <c r="B5170">
-        <v>3210.974220885298</v>
+        <v>3210.974220885297</v>
       </c>
     </row>
     <row r="5171" spans="1:2">
@@ -41799,7 +41799,7 @@
         <v>5182</v>
       </c>
       <c r="B5182">
-        <v>3636.190990879044</v>
+        <v>3636.190990879043</v>
       </c>
     </row>
     <row r="5183" spans="1:2">
@@ -41887,7 +41887,7 @@
         <v>5193</v>
       </c>
       <c r="B5193">
-        <v>3245.204918200943</v>
+        <v>3245.204918200942</v>
       </c>
     </row>
     <row r="5194" spans="1:2">
@@ -42039,7 +42039,7 @@
         <v>5212</v>
       </c>
       <c r="B5212">
-        <v>3035.805661077412</v>
+        <v>3035.805661077411</v>
       </c>
     </row>
     <row r="5213" spans="1:2">
@@ -42055,7 +42055,7 @@
         <v>5214</v>
       </c>
       <c r="B5214">
-        <v>2993.837888341107</v>
+        <v>2993.837888341106</v>
       </c>
     </row>
     <row r="5215" spans="1:2">
@@ -42431,7 +42431,7 @@
         <v>5261</v>
       </c>
       <c r="B5261">
-        <v>664.1986177597533</v>
+        <v>664.1986177597532</v>
       </c>
     </row>
     <row r="5262" spans="1:2">
@@ -42455,7 +42455,7 @@
         <v>5264</v>
       </c>
       <c r="B5264">
-        <v>677.7560840082272</v>
+        <v>677.756084008227</v>
       </c>
     </row>
     <row r="5265" spans="1:2">
@@ -42463,7 +42463,7 @@
         <v>5265</v>
       </c>
       <c r="B5265">
-        <v>846.5034573590432</v>
+        <v>846.5034573590431</v>
       </c>
     </row>
     <row r="5266" spans="1:2">
@@ -42599,7 +42599,7 @@
         <v>5282</v>
       </c>
       <c r="B5282">
-        <v>860.151775629502</v>
+        <v>860.1517756295019</v>
       </c>
     </row>
     <row r="5283" spans="1:2">
@@ -42647,7 +42647,7 @@
         <v>5288</v>
       </c>
       <c r="B5288">
-        <v>737.3110497745992</v>
+        <v>737.311049774599</v>
       </c>
     </row>
     <row r="5289" spans="1:2">
@@ -42695,7 +42695,7 @@
         <v>5294</v>
       </c>
       <c r="B5294">
-        <v>1589.376995447435</v>
+        <v>1589.376995447434</v>
       </c>
     </row>
     <row r="5295" spans="1:2">
@@ -42719,7 +42719,7 @@
         <v>5297</v>
       </c>
       <c r="B5297">
-        <v>1717.683496173372</v>
+        <v>1717.683496173371</v>
       </c>
     </row>
     <row r="5298" spans="1:2">
@@ -42791,7 +42791,7 @@
         <v>5306</v>
       </c>
       <c r="B5306">
-        <v>953.3425045030366</v>
+        <v>953.3425045030364</v>
       </c>
     </row>
     <row r="5307" spans="1:2">
@@ -42959,7 +42959,7 @@
         <v>5327</v>
       </c>
       <c r="B5327">
-        <v>1518.647230976906</v>
+        <v>1518.647230976905</v>
       </c>
     </row>
     <row r="5328" spans="1:2">
@@ -43023,7 +43023,7 @@
         <v>5335</v>
       </c>
       <c r="B5335">
-        <v>1327.623527977441</v>
+        <v>1327.62352797744</v>
       </c>
     </row>
     <row r="5336" spans="1:2">
@@ -43079,7 +43079,7 @@
         <v>5342</v>
       </c>
       <c r="B5342">
-        <v>2276.822007993806</v>
+        <v>2276.822007993805</v>
       </c>
     </row>
     <row r="5343" spans="1:2">
@@ -43103,7 +43103,7 @@
         <v>5345</v>
       </c>
       <c r="B5345">
-        <v>2468.499259409486</v>
+        <v>2468.499259409485</v>
       </c>
     </row>
     <row r="5346" spans="1:2">
@@ -43135,7 +43135,7 @@
         <v>5349</v>
       </c>
       <c r="B5349">
-        <v>2454.273591192864</v>
+        <v>2454.273591192863</v>
       </c>
     </row>
     <row r="5350" spans="1:2">
@@ -43151,7 +43151,7 @@
         <v>5351</v>
       </c>
       <c r="B5351">
-        <v>2383.069051639704</v>
+        <v>2383.069051639703</v>
       </c>
     </row>
     <row r="5352" spans="1:2">
@@ -43471,7 +43471,7 @@
         <v>5391</v>
       </c>
       <c r="B5391">
-        <v>3158.045591303059</v>
+        <v>3158.045591303058</v>
       </c>
     </row>
     <row r="5392" spans="1:2">
@@ -43583,7 +43583,7 @@
         <v>5405</v>
       </c>
       <c r="B5405">
-        <v>2122.619750291753</v>
+        <v>2122.619750291752</v>
       </c>
     </row>
     <row r="5406" spans="1:2">
@@ -43847,7 +43847,7 @@
         <v>5438</v>
       </c>
       <c r="B5438">
-        <v>2796.076482162818</v>
+        <v>2796.076482162817</v>
       </c>
     </row>
     <row r="5439" spans="1:2">
@@ -43903,7 +43903,7 @@
         <v>5445</v>
       </c>
       <c r="B5445">
-        <v>2800.094486102865</v>
+        <v>2800.094486102864</v>
       </c>
     </row>
     <row r="5446" spans="1:2">
@@ -43935,7 +43935,7 @@
         <v>5449</v>
       </c>
       <c r="B5449">
-        <v>2637.88845833497</v>
+        <v>2637.888458334969</v>
       </c>
     </row>
     <row r="5450" spans="1:2">
@@ -44055,7 +44055,7 @@
         <v>5464</v>
       </c>
       <c r="B5464">
-        <v>3183.103165108604</v>
+        <v>3183.103165108603</v>
       </c>
     </row>
     <row r="5465" spans="1:2">
@@ -44287,7 +44287,7 @@
         <v>5493</v>
       </c>
       <c r="B5493">
-        <v>3166.07573776238</v>
+        <v>3166.075737762379</v>
       </c>
     </row>
     <row r="5494" spans="1:2">
@@ -44295,7 +44295,7 @@
         <v>5494</v>
       </c>
       <c r="B5494">
-        <v>3143.509267785456</v>
+        <v>3143.509267785455</v>
       </c>
     </row>
     <row r="5495" spans="1:2">
@@ -44359,7 +44359,7 @@
         <v>5502</v>
       </c>
       <c r="B5502">
-        <v>2766.637496329286</v>
+        <v>2766.637496329285</v>
       </c>
     </row>
     <row r="5503" spans="1:2">
@@ -44391,7 +44391,7 @@
         <v>5506</v>
       </c>
       <c r="B5506">
-        <v>3044.744327756583</v>
+        <v>3044.744327756582</v>
       </c>
     </row>
     <row r="5507" spans="1:2">
@@ -44567,7 +44567,7 @@
         <v>5528</v>
       </c>
       <c r="B5528">
-        <v>2674.205821445884</v>
+        <v>2674.205821445883</v>
       </c>
     </row>
     <row r="5529" spans="1:2">
@@ -44671,7 +44671,7 @@
         <v>5541</v>
       </c>
       <c r="B5541">
-        <v>3261.939274508506</v>
+        <v>3261.939274508505</v>
       </c>
     </row>
     <row r="5542" spans="1:2">
@@ -44719,7 +44719,7 @@
         <v>5547</v>
       </c>
       <c r="B5547">
-        <v>2889.431330818003</v>
+        <v>2889.431330818002</v>
       </c>
     </row>
     <row r="5548" spans="1:2">
@@ -44767,7 +44767,7 @@
         <v>5553</v>
       </c>
       <c r="B5553">
-        <v>2930.007016120666</v>
+        <v>2930.007016120665</v>
       </c>
     </row>
     <row r="5554" spans="1:2">
@@ -44775,7 +44775,7 @@
         <v>5554</v>
       </c>
       <c r="B5554">
-        <v>3061.888983518272</v>
+        <v>3061.888983518271</v>
       </c>
     </row>
     <row r="5555" spans="1:2">
@@ -44799,7 +44799,7 @@
         <v>5557</v>
       </c>
       <c r="B5557">
-        <v>3335.998325978228</v>
+        <v>3335.998325978227</v>
       </c>
     </row>
     <row r="5558" spans="1:2">
@@ -44935,7 +44935,7 @@
         <v>5574</v>
       </c>
       <c r="B5574">
-        <v>2285.300553142279</v>
+        <v>2285.300553142278</v>
       </c>
     </row>
     <row r="5575" spans="1:2">
@@ -45135,7 +45135,7 @@
         <v>5599</v>
       </c>
       <c r="B5599">
-        <v>1069.284338107852</v>
+        <v>1069.284338107851</v>
       </c>
     </row>
     <row r="5600" spans="1:2">
@@ -45207,7 +45207,7 @@
         <v>5608</v>
       </c>
       <c r="B5608">
-        <v>2099.48179178944</v>
+        <v>2099.481791789439</v>
       </c>
     </row>
     <row r="5609" spans="1:2">
@@ -45415,7 +45415,7 @@
         <v>5634</v>
       </c>
       <c r="B5634">
-        <v>2194.597997386979</v>
+        <v>2194.597997386978</v>
       </c>
     </row>
     <row r="5635" spans="1:2">
@@ -45439,7 +45439,7 @@
         <v>5637</v>
       </c>
       <c r="B5637">
-        <v>1939.790313533259</v>
+        <v>1939.790313533258</v>
       </c>
     </row>
     <row r="5638" spans="1:2">
@@ -45463,7 +45463,7 @@
         <v>5640</v>
       </c>
       <c r="B5640">
-        <v>1586.701256864457</v>
+        <v>1586.701256864456</v>
       </c>
     </row>
     <row r="5641" spans="1:2">
@@ -45567,7 +45567,7 @@
         <v>5653</v>
       </c>
       <c r="B5653">
-        <v>2108.147902402656</v>
+        <v>2108.147902402655</v>
       </c>
     </row>
     <row r="5654" spans="1:2">
@@ -45671,7 +45671,7 @@
         <v>5666</v>
       </c>
       <c r="B5666">
-        <v>1861.584306866479</v>
+        <v>1861.584306866478</v>
       </c>
     </row>
     <row r="5667" spans="1:2">
@@ -45847,7 +45847,7 @@
         <v>5688</v>
       </c>
       <c r="B5688">
-        <v>2630.38583974524</v>
+        <v>2630.385839745239</v>
       </c>
     </row>
     <row r="5689" spans="1:2">
@@ -45871,7 +45871,7 @@
         <v>5691</v>
       </c>
       <c r="B5691">
-        <v>2509.107182526402</v>
+        <v>2509.107182526401</v>
       </c>
     </row>
     <row r="5692" spans="1:2">
@@ -45887,7 +45887,7 @@
         <v>5693</v>
       </c>
       <c r="B5693">
-        <v>2499.101737266504</v>
+        <v>2499.101737266503</v>
       </c>
     </row>
     <row r="5694" spans="1:2">
@@ -45895,7 +45895,7 @@
         <v>5694</v>
       </c>
       <c r="B5694">
-        <v>2516.961486362526</v>
+        <v>2516.961486362525</v>
       </c>
     </row>
     <row r="5695" spans="1:2">
@@ -45911,7 +45911,7 @@
         <v>5696</v>
       </c>
       <c r="B5696">
-        <v>2553.284710894213</v>
+        <v>2553.284710894212</v>
       </c>
     </row>
     <row r="5697" spans="1:2">
@@ -46143,7 +46143,7 @@
         <v>5725</v>
       </c>
       <c r="B5725">
-        <v>2849.459371854982</v>
+        <v>2849.459371854981</v>
       </c>
     </row>
     <row r="5726" spans="1:2">
@@ -46383,7 +46383,7 @@
         <v>5755</v>
       </c>
       <c r="B5755">
-        <v>3296.169971824151</v>
+        <v>3296.16997182415</v>
       </c>
     </row>
     <row r="5756" spans="1:2">
@@ -46431,7 +46431,7 @@
         <v>5761</v>
       </c>
       <c r="B5761">
-        <v>2641.484439979345</v>
+        <v>2641.484439979344</v>
       </c>
     </row>
     <row r="5762" spans="1:2">
@@ -46495,7 +46495,7 @@
         <v>5769</v>
       </c>
       <c r="B5769">
-        <v>2498.333891145211</v>
+        <v>2498.33389114521</v>
       </c>
     </row>
     <row r="5770" spans="1:2">
@@ -46519,7 +46519,7 @@
         <v>5772</v>
       </c>
       <c r="B5772">
-        <v>2823.461040015334</v>
+        <v>2823.461040015333</v>
       </c>
     </row>
     <row r="5773" spans="1:2">
@@ -46879,7 +46879,7 @@
         <v>5817</v>
       </c>
       <c r="B5817">
-        <v>854.7621992285199</v>
+        <v>854.7621992285198</v>
       </c>
     </row>
     <row r="5818" spans="1:2">
@@ -46903,7 +46903,7 @@
         <v>5820</v>
       </c>
       <c r="B5820">
-        <v>1476.494823486245</v>
+        <v>1476.494823486244</v>
       </c>
     </row>
     <row r="5821" spans="1:2">
@@ -47103,7 +47103,7 @@
         <v>5845</v>
       </c>
       <c r="B5845">
-        <v>3271.464083265</v>
+        <v>3271.464083264999</v>
       </c>
     </row>
     <row r="5846" spans="1:2">
@@ -47287,7 +47287,7 @@
         <v>5868</v>
       </c>
       <c r="B5868">
-        <v>3131.903654654467</v>
+        <v>3131.903654654466</v>
       </c>
     </row>
     <row r="5869" spans="1:2">
@@ -47343,7 +47343,7 @@
         <v>5875</v>
       </c>
       <c r="B5875">
-        <v>3064.380087346893</v>
+        <v>3064.380087346892</v>
       </c>
     </row>
     <row r="5876" spans="1:2">
@@ -47695,7 +47695,7 @@
         <v>5919</v>
       </c>
       <c r="B5919">
-        <v>2402.203659753903</v>
+        <v>2402.203659753902</v>
       </c>
     </row>
     <row r="5920" spans="1:2">
@@ -47711,7 +47711,7 @@
         <v>5921</v>
       </c>
       <c r="B5921">
-        <v>2392.113223892793</v>
+        <v>2392.113223892792</v>
       </c>
     </row>
     <row r="5922" spans="1:2">
@@ -47823,7 +47823,7 @@
         <v>5935</v>
       </c>
       <c r="B5935">
-        <v>1502.126816527566</v>
+        <v>1502.126816527565</v>
       </c>
     </row>
     <row r="5936" spans="1:2">
@@ -47863,7 +47863,7 @@
         <v>5940</v>
       </c>
       <c r="B5940">
-        <v>2277.082841218215</v>
+        <v>2277.082841218214</v>
       </c>
     </row>
     <row r="5941" spans="1:2">
@@ -48015,7 +48015,7 @@
         <v>5959</v>
       </c>
       <c r="B5959">
-        <v>2156.610129355696</v>
+        <v>2156.610129355695</v>
       </c>
     </row>
     <row r="5960" spans="1:2">
@@ -48055,7 +48055,7 @@
         <v>5964</v>
       </c>
       <c r="B5964">
-        <v>2739.759951373654</v>
+        <v>2739.759951373653</v>
       </c>
     </row>
     <row r="5965" spans="1:2">
@@ -48063,7 +48063,7 @@
         <v>5965</v>
       </c>
       <c r="B5965">
-        <v>2900.06101739025</v>
+        <v>2900.061017390249</v>
       </c>
     </row>
     <row r="5966" spans="1:2">
@@ -48079,7 +48079,7 @@
         <v>5967</v>
       </c>
       <c r="B5967">
-        <v>3087.005171531549</v>
+        <v>3087.005171531548</v>
       </c>
     </row>
     <row r="5968" spans="1:2">
@@ -48095,7 +48095,7 @@
         <v>5969</v>
       </c>
       <c r="B5969">
-        <v>3113.38156501107</v>
+        <v>3113.381565011069</v>
       </c>
     </row>
     <row r="5970" spans="1:2">
@@ -48143,7 +48143,7 @@
         <v>5975</v>
       </c>
       <c r="B5975">
-        <v>3024.434504777352</v>
+        <v>3024.434504777351</v>
       </c>
     </row>
     <row r="5976" spans="1:2">
@@ -48151,7 +48151,7 @@
         <v>5976</v>
       </c>
       <c r="B5976">
-        <v>2995.801464300138</v>
+        <v>2995.801464300137</v>
       </c>
     </row>
     <row r="5977" spans="1:2">
@@ -48271,7 +48271,7 @@
         <v>5991</v>
       </c>
       <c r="B5991">
-        <v>3218.828524721422</v>
+        <v>3218.828524721421</v>
       </c>
     </row>
     <row r="5992" spans="1:2">
@@ -48351,7 +48351,7 @@
         <v>6001</v>
       </c>
       <c r="B6001">
-        <v>2557.628023687174</v>
+        <v>2557.628023687173</v>
       </c>
     </row>
     <row r="6002" spans="1:2">
@@ -48863,7 +48863,7 @@
         <v>6065</v>
       </c>
       <c r="B6065">
-        <v>2641.431687192386</v>
+        <v>2641.431687192385</v>
       </c>
     </row>
     <row r="6066" spans="1:2">
@@ -49031,7 +49031,7 @@
         <v>6086</v>
       </c>
       <c r="B6086">
-        <v>2580.376197708068</v>
+        <v>2580.376197708067</v>
       </c>
     </row>
     <row r="6087" spans="1:2">
@@ -49039,7 +49039,7 @@
         <v>6087</v>
       </c>
       <c r="B6087">
-        <v>2663.79007673186</v>
+        <v>2663.790076731859</v>
       </c>
     </row>
     <row r="6088" spans="1:2">
@@ -49103,7 +49103,7 @@
         <v>6095</v>
       </c>
       <c r="B6095">
-        <v>2011.202933523869</v>
+        <v>2011.202933523868</v>
       </c>
     </row>
     <row r="6096" spans="1:2">
@@ -49295,7 +49295,7 @@
         <v>6119</v>
       </c>
       <c r="B6119">
-        <v>1735.6077208979</v>
+        <v>1735.607720897899</v>
       </c>
     </row>
     <row r="6120" spans="1:2">
@@ -49399,7 +49399,7 @@
         <v>6132</v>
       </c>
       <c r="B6132">
-        <v>1952.77042983557</v>
+        <v>1952.770429835569</v>
       </c>
     </row>
     <row r="6133" spans="1:2">
@@ -49439,7 +49439,7 @@
         <v>6137</v>
       </c>
       <c r="B6137">
-        <v>2358.539005703749</v>
+        <v>2358.539005703748</v>
       </c>
     </row>
     <row r="6138" spans="1:2">
@@ -49487,7 +49487,7 @@
         <v>6143</v>
       </c>
       <c r="B6143">
-        <v>1965.272840344863</v>
+        <v>1965.272840344862</v>
       </c>
     </row>
     <row r="6144" spans="1:2">
@@ -49887,7 +49887,7 @@
         <v>6193</v>
       </c>
       <c r="B6193">
-        <v>2110.351796613389</v>
+        <v>2110.351796613388</v>
       </c>
     </row>
     <row r="6194" spans="1:2">
@@ -50023,7 +50023,7 @@
         <v>6210</v>
       </c>
       <c r="B6210">
-        <v>2746.424386792813</v>
+        <v>2746.424386792812</v>
       </c>
     </row>
     <row r="6211" spans="1:2">
@@ -50031,7 +50031,7 @@
         <v>6211</v>
       </c>
       <c r="B6211">
-        <v>2764.140531079891</v>
+        <v>2764.14053107989</v>
       </c>
     </row>
     <row r="6212" spans="1:2">
@@ -50039,7 +50039,7 @@
         <v>6212</v>
       </c>
       <c r="B6212">
-        <v>2734.156433114449</v>
+        <v>2734.156433114448</v>
       </c>
     </row>
     <row r="6213" spans="1:2">
@@ -50087,7 +50087,7 @@
         <v>6218</v>
       </c>
       <c r="B6218">
-        <v>2446.088117083053</v>
+        <v>2446.088117083052</v>
       </c>
     </row>
     <row r="6219" spans="1:2">
@@ -50103,7 +50103,7 @@
         <v>6220</v>
       </c>
       <c r="B6220">
-        <v>2335.257442392492</v>
+        <v>2335.257442392491</v>
       </c>
     </row>
     <row r="6221" spans="1:2">
@@ -50207,7 +50207,7 @@
         <v>6233</v>
       </c>
       <c r="B6233">
-        <v>3324.451327054971</v>
+        <v>3324.45132705497</v>
       </c>
     </row>
     <row r="6234" spans="1:2">
@@ -50223,7 +50223,7 @@
         <v>6235</v>
       </c>
       <c r="B6235">
-        <v>3311.233823211344</v>
+        <v>3311.233823211343</v>
       </c>
     </row>
     <row r="6236" spans="1:2">
@@ -50383,7 +50383,7 @@
         <v>6255</v>
       </c>
       <c r="B6255">
-        <v>3160.419466716216</v>
+        <v>3160.419466716215</v>
       </c>
     </row>
     <row r="6256" spans="1:2">
@@ -50423,7 +50423,7 @@
         <v>6260</v>
       </c>
       <c r="B6260">
-        <v>2960.07610468732</v>
+        <v>2960.076104687319</v>
       </c>
     </row>
     <row r="6261" spans="1:2">
@@ -50583,7 +50583,7 @@
         <v>6280</v>
       </c>
       <c r="B6280">
-        <v>1896.204788663544</v>
+        <v>1896.204788663543</v>
       </c>
     </row>
     <row r="6281" spans="1:2">
@@ -50631,7 +50631,7 @@
         <v>6286</v>
       </c>
       <c r="B6286">
-        <v>1175.950473339035</v>
+        <v>1175.950473339034</v>
       </c>
     </row>
     <row r="6287" spans="1:2">
@@ -50735,7 +50735,7 @@
         <v>6299</v>
       </c>
       <c r="B6299">
-        <v>262.5107630338949</v>
+        <v>262.5107630338948</v>
       </c>
     </row>
     <row r="6300" spans="1:2">
@@ -50815,7 +50815,7 @@
         <v>6309</v>
       </c>
       <c r="B6309">
-        <v>900.0270211497647</v>
+        <v>900.0270211497646</v>
       </c>
     </row>
     <row r="6310" spans="1:2">
@@ -50831,7 +50831,7 @@
         <v>6311</v>
       </c>
       <c r="B6311">
-        <v>582.1533804865097</v>
+        <v>582.1533804865096</v>
       </c>
     </row>
     <row r="6312" spans="1:2">
@@ -51015,7 +51015,7 @@
         <v>6334</v>
       </c>
       <c r="B6334">
-        <v>862.4728982556999</v>
+        <v>862.4728982556998</v>
       </c>
     </row>
     <row r="6335" spans="1:2">
@@ -51023,7 +51023,7 @@
         <v>6335</v>
       </c>
       <c r="B6335">
-        <v>731.1184587276849</v>
+        <v>731.1184587276848</v>
       </c>
     </row>
     <row r="6336" spans="1:2">
@@ -51031,7 +51031,7 @@
         <v>6336</v>
       </c>
       <c r="B6336">
-        <v>581.9306464971271</v>
+        <v>581.930646497127</v>
       </c>
     </row>
     <row r="6337" spans="1:2">
@@ -51039,7 +51039,7 @@
         <v>6337</v>
       </c>
       <c r="B6337">
-        <v>487.8431202452888</v>
+        <v>487.8431202452887</v>
       </c>
     </row>
     <row r="6338" spans="1:2">
@@ -51071,7 +51071,7 @@
         <v>6341</v>
       </c>
       <c r="B6341">
-        <v>94.25838666737786</v>
+        <v>94.25838666737783</v>
       </c>
     </row>
     <row r="6342" spans="1:2">
@@ -51095,7 +51095,7 @@
         <v>6344</v>
       </c>
       <c r="B6344">
-        <v>90.02145866145079</v>
+        <v>90.02145866145078</v>
       </c>
     </row>
     <row r="6345" spans="1:2">
@@ -51247,7 +51247,7 @@
         <v>6363</v>
       </c>
       <c r="B6363">
-        <v>649.2988861542105</v>
+        <v>649.2988861542104</v>
       </c>
     </row>
     <row r="6364" spans="1:2">
@@ -51255,7 +51255,7 @@
         <v>6364</v>
       </c>
       <c r="B6364">
-        <v>545.3143509267786</v>
+        <v>545.3143509267785</v>
       </c>
     </row>
     <row r="6365" spans="1:2">
@@ -51271,7 +51271,7 @@
         <v>6366</v>
       </c>
       <c r="B6366">
-        <v>417.5881308573911</v>
+        <v>417.588130857391</v>
       </c>
     </row>
     <row r="6367" spans="1:2">
@@ -51439,7 +51439,7 @@
         <v>6387</v>
       </c>
       <c r="B6387">
-        <v>337.8141941337729</v>
+        <v>337.8141941337728</v>
       </c>
     </row>
     <row r="6388" spans="1:2">
@@ -51447,7 +51447,7 @@
         <v>6388</v>
       </c>
       <c r="B6388">
-        <v>216.5287962810458</v>
+        <v>216.5287962810457</v>
       </c>
     </row>
     <row r="6389" spans="1:2">
@@ -51647,7 +51647,7 @@
         <v>6413</v>
       </c>
       <c r="B6413">
-        <v>618.2187025041749</v>
+        <v>618.2187025041748</v>
       </c>
     </row>
     <row r="6414" spans="1:2">
@@ -51711,7 +51711,7 @@
         <v>6421</v>
       </c>
       <c r="B6421">
-        <v>1374.86657940965</v>
+        <v>1374.866579409649</v>
       </c>
     </row>
     <row r="6422" spans="1:2">
@@ -51775,7 +51775,7 @@
         <v>6429</v>
       </c>
       <c r="B6429">
-        <v>1549.132480418459</v>
+        <v>1549.132480418458</v>
       </c>
     </row>
     <row r="6430" spans="1:2">
@@ -51839,7 +51839,7 @@
         <v>6437</v>
       </c>
       <c r="B6437">
-        <v>800.6876618851151</v>
+        <v>800.6876618851149</v>
       </c>
     </row>
     <row r="6438" spans="1:2">
@@ -51959,7 +51959,7 @@
         <v>6452</v>
       </c>
       <c r="B6452">
-        <v>1861.288305117431</v>
+        <v>1861.28830511743</v>
       </c>
     </row>
     <row r="6453" spans="1:2">
@@ -52079,7 +52079,7 @@
         <v>6467</v>
       </c>
       <c r="B6467">
-        <v>1474.384712007883</v>
+        <v>1474.384712007882</v>
       </c>
     </row>
     <row r="6468" spans="1:2">
@@ -52167,7 +52167,7 @@
         <v>6478</v>
       </c>
       <c r="B6478">
-        <v>1824.645633153603</v>
+        <v>1824.645633153602</v>
       </c>
     </row>
     <row r="6479" spans="1:2">
@@ -52287,7 +52287,7 @@
         <v>6493</v>
       </c>
       <c r="B6493">
-        <v>1991.53200540892</v>
+        <v>1991.532005408919</v>
       </c>
     </row>
     <row r="6494" spans="1:2">
@@ -52295,7 +52295,7 @@
         <v>6494</v>
       </c>
       <c r="B6494">
-        <v>2065.907573600396</v>
+        <v>2065.907573600395</v>
       </c>
     </row>
     <row r="6495" spans="1:2">
@@ -52367,7 +52367,7 @@
         <v>6503</v>
       </c>
       <c r="B6503">
-        <v>1799.277404047077</v>
+        <v>1799.277404047076</v>
       </c>
     </row>
     <row r="6504" spans="1:2">
@@ -52399,7 +52399,7 @@
         <v>6507</v>
       </c>
       <c r="B6507">
-        <v>1604.411539730762</v>
+        <v>1604.411539730761</v>
       </c>
     </row>
     <row r="6508" spans="1:2">
@@ -52415,7 +52415,7 @@
         <v>6509</v>
       </c>
       <c r="B6509">
-        <v>1490.51827268619</v>
+        <v>1490.518272686189</v>
       </c>
     </row>
     <row r="6510" spans="1:2">
@@ -52463,7 +52463,7 @@
         <v>6515</v>
       </c>
       <c r="B6515">
-        <v>1839.378314267109</v>
+        <v>1839.378314267108</v>
       </c>
     </row>
     <row r="6516" spans="1:2">
@@ -52527,7 +52527,7 @@
         <v>6523</v>
       </c>
       <c r="B6523">
-        <v>2457.901810651492</v>
+        <v>2457.901810651491</v>
       </c>
     </row>
     <row r="6524" spans="1:2">
@@ -52567,7 +52567,7 @@
         <v>6528</v>
       </c>
       <c r="B6528">
-        <v>2391.521220394697</v>
+        <v>2391.521220394696</v>
       </c>
     </row>
     <row r="6529" spans="1:2">
@@ -52775,7 +52775,7 @@
         <v>6554</v>
       </c>
       <c r="B6554">
-        <v>594.494601924539</v>
+        <v>594.4946019245389</v>
       </c>
     </row>
     <row r="6555" spans="1:2">
@@ -52791,7 +52791,7 @@
         <v>6556</v>
       </c>
       <c r="B6556">
-        <v>440.4359490314296</v>
+        <v>440.4359490314295</v>
       </c>
     </row>
     <row r="6557" spans="1:2">
@@ -52823,7 +52823,7 @@
         <v>6560</v>
       </c>
       <c r="B6560">
-        <v>284.4849364416839</v>
+        <v>284.4849364416838</v>
       </c>
     </row>
     <row r="6561" spans="1:2">
@@ -52895,7 +52895,7 @@
         <v>6569</v>
       </c>
       <c r="B6569">
-        <v>1045.173383757183</v>
+        <v>1045.173383757182</v>
       </c>
     </row>
     <row r="6570" spans="1:2">
@@ -52927,7 +52927,7 @@
         <v>6573</v>
       </c>
       <c r="B6573">
-        <v>681.017964668528</v>
+        <v>681.0179646685278</v>
       </c>
     </row>
     <row r="6574" spans="1:2">
@@ -53039,7 +53039,7 @@
         <v>6587</v>
       </c>
       <c r="B6587">
-        <v>210.5823849066071</v>
+        <v>210.582384906607</v>
       </c>
     </row>
     <row r="6588" spans="1:2">
@@ -53079,7 +53079,7 @@
         <v>6592</v>
       </c>
       <c r="B6592">
-        <v>833.1657943895653</v>
+        <v>833.1657943895652</v>
       </c>
     </row>
     <row r="6593" spans="1:2">
@@ -53087,7 +53087,7 @@
         <v>6593</v>
       </c>
       <c r="B6593">
-        <v>823.6849462888708</v>
+        <v>823.6849462888707</v>
       </c>
     </row>
     <row r="6594" spans="1:2">
@@ -53103,7 +53103,7 @@
         <v>6595</v>
       </c>
       <c r="B6595">
-        <v>635.6945285395509</v>
+        <v>635.6945285395508</v>
       </c>
     </row>
     <row r="6596" spans="1:2">
@@ -53271,7 +53271,7 @@
         <v>6616</v>
       </c>
       <c r="B6616">
-        <v>832.6587814926812</v>
+        <v>832.6587814926811</v>
       </c>
     </row>
     <row r="6617" spans="1:2">
@@ -53279,7 +53279,7 @@
         <v>6617</v>
       </c>
       <c r="B6617">
-        <v>733.483542009682</v>
+        <v>733.4835420096819</v>
       </c>
     </row>
     <row r="6618" spans="1:2">
@@ -53463,7 +53463,7 @@
         <v>6640</v>
       </c>
       <c r="B6640">
-        <v>956.0358273483344</v>
+        <v>956.0358273483342</v>
       </c>
     </row>
     <row r="6641" spans="1:2">
@@ -53567,7 +53567,7 @@
         <v>6653</v>
       </c>
       <c r="B6653">
-        <v>308.2755641470959</v>
+        <v>308.2755641470958</v>
       </c>
     </row>
     <row r="6654" spans="1:2">
@@ -53695,7 +53695,7 @@
         <v>6669</v>
       </c>
       <c r="B6669">
-        <v>1081.224052222915</v>
+        <v>1081.224052222914</v>
       </c>
     </row>
     <row r="6670" spans="1:2">
@@ -53711,7 +53711,7 @@
         <v>6671</v>
       </c>
       <c r="B6671">
-        <v>931.4032065488484</v>
+        <v>931.4032065488482</v>
       </c>
     </row>
     <row r="6672" spans="1:2">
@@ -53791,7 +53791,7 @@
         <v>6681</v>
       </c>
       <c r="B6681">
-        <v>642.2886269094312</v>
+        <v>642.2886269094311</v>
       </c>
     </row>
     <row r="6682" spans="1:2">
@@ -53911,7 +53911,7 @@
         <v>6696</v>
       </c>
       <c r="B6696">
-        <v>883.6677957716884</v>
+        <v>883.6677957716882</v>
       </c>
     </row>
     <row r="6697" spans="1:2">
@@ -53927,7 +53927,7 @@
         <v>6698</v>
       </c>
       <c r="B6698">
-        <v>691.8674545197709</v>
+        <v>691.8674545197708</v>
       </c>
     </row>
     <row r="6699" spans="1:2">
@@ -53943,7 +53943,7 @@
         <v>6700</v>
       </c>
       <c r="B6700">
-        <v>535.3733812953858</v>
+        <v>535.3733812953857</v>
       </c>
     </row>
     <row r="6701" spans="1:2">
@@ -53959,7 +53959,7 @@
         <v>6702</v>
       </c>
       <c r="B6702">
-        <v>438.4782344931718</v>
+        <v>438.4782344931717</v>
       </c>
     </row>
     <row r="6703" spans="1:2">
@@ -54383,7 +54383,7 @@
         <v>6755</v>
       </c>
       <c r="B6755">
-        <v>1533.590923238248</v>
+        <v>1533.590923238247</v>
       </c>
     </row>
     <row r="6756" spans="1:2">
@@ -54615,7 +54615,7 @@
         <v>6784</v>
       </c>
       <c r="B6784">
-        <v>698.7604853490858</v>
+        <v>698.7604853490857</v>
       </c>
     </row>
     <row r="6785" spans="1:2">
@@ -54623,7 +54623,7 @@
         <v>6785</v>
       </c>
       <c r="B6785">
-        <v>639.6070269056798</v>
+        <v>639.6070269056797</v>
       </c>
     </row>
     <row r="6786" spans="1:2">
@@ -54815,7 +54815,7 @@
         <v>6809</v>
       </c>
       <c r="B6809">
-        <v>396.0356866742358</v>
+        <v>396.0356866742357</v>
       </c>
     </row>
     <row r="6810" spans="1:2">
@@ -54831,7 +54831,7 @@
         <v>6811</v>
       </c>
       <c r="B6811">
-        <v>290.9368953578134</v>
+        <v>290.9368953578133</v>
       </c>
     </row>
     <row r="6812" spans="1:2">
@@ -55199,7 +55199,7 @@
         <v>6857</v>
       </c>
       <c r="B6857">
-        <v>693.7870698230028</v>
+        <v>693.7870698230026</v>
       </c>
     </row>
     <row r="6858" spans="1:2">
@@ -55399,7 +55399,7 @@
         <v>6882</v>
       </c>
       <c r="B6882">
-        <v>540.9241467676317</v>
+        <v>540.9241467676316</v>
       </c>
     </row>
     <row r="6883" spans="1:2">
@@ -55407,7 +55407,7 @@
         <v>6883</v>
       </c>
       <c r="B6883">
-        <v>436.9308194090399</v>
+        <v>436.9308194090398</v>
       </c>
     </row>
     <row r="6884" spans="1:2">
@@ -55583,7 +55583,7 @@
         <v>6905</v>
       </c>
       <c r="B6905">
-        <v>742.9526672688301</v>
+        <v>742.9526672688299</v>
       </c>
     </row>
     <row r="6906" spans="1:2">
@@ -55615,7 +55615,7 @@
         <v>6909</v>
       </c>
       <c r="B6909">
-        <v>437.4290401747642</v>
+        <v>437.4290401747641</v>
       </c>
     </row>
     <row r="6910" spans="1:2">
@@ -55751,7 +55751,7 @@
         <v>6926</v>
       </c>
       <c r="B6926">
-        <v>847.9746739731231</v>
+        <v>847.974673973123</v>
       </c>
     </row>
     <row r="6927" spans="1:2">
@@ -55791,7 +55791,7 @@
         <v>6931</v>
       </c>
       <c r="B6931">
-        <v>857.6049883035349</v>
+        <v>857.6049883035348</v>
       </c>
     </row>
     <row r="6932" spans="1:2">
@@ -55927,7 +55927,7 @@
         <v>6948</v>
       </c>
       <c r="B6948">
-        <v>266.4417248754595</v>
+        <v>266.4417248754594</v>
       </c>
     </row>
     <row r="6949" spans="1:2">
@@ -55935,7 +55935,7 @@
         <v>6949</v>
       </c>
       <c r="B6949">
-        <v>463.9226620697498</v>
+        <v>463.9226620697497</v>
       </c>
     </row>
     <row r="6950" spans="1:2">
@@ -55991,7 +55991,7 @@
         <v>6956</v>
       </c>
       <c r="B6956">
-        <v>690.1119589981895</v>
+        <v>690.1119589981894</v>
       </c>
     </row>
     <row r="6957" spans="1:2">
@@ -56143,7 +56143,7 @@
         <v>6975</v>
       </c>
       <c r="B6975">
-        <v>1055.62136628546</v>
+        <v>1055.621366285459</v>
       </c>
     </row>
     <row r="6976" spans="1:2">
@@ -56279,7 +56279,7 @@
         <v>6992</v>
       </c>
       <c r="B6992">
-        <v>531.8887666457024</v>
+        <v>531.8887666457023</v>
       </c>
     </row>
     <row r="6993" spans="1:2">
@@ -56431,7 +56431,7 @@
         <v>7011</v>
       </c>
       <c r="B7011">
-        <v>903.1833962361474</v>
+        <v>903.1833962361472</v>
       </c>
     </row>
     <row r="7012" spans="1:2">
@@ -56463,7 +56463,7 @@
         <v>7015</v>
       </c>
       <c r="B7015">
-        <v>716.9484740084089</v>
+        <v>716.9484740084088</v>
       </c>
     </row>
     <row r="7016" spans="1:2">
@@ -56471,7 +56471,7 @@
         <v>7016</v>
       </c>
       <c r="B7016">
-        <v>791.1013082105025</v>
+        <v>791.1013082105023</v>
       </c>
     </row>
     <row r="7017" spans="1:2">
@@ -56503,7 +56503,7 @@
         <v>7020</v>
       </c>
       <c r="B7020">
-        <v>1279.457302773449</v>
+        <v>1279.457302773448</v>
       </c>
     </row>
     <row r="7021" spans="1:2">
@@ -56615,7 +56615,7 @@
         <v>7034</v>
       </c>
       <c r="B7034">
-        <v>988.261918759536</v>
+        <v>988.2619187595358</v>
       </c>
     </row>
     <row r="7035" spans="1:2">
@@ -56639,7 +56639,7 @@
         <v>7037</v>
       </c>
       <c r="B7037">
-        <v>814.350633707507</v>
+        <v>814.3506337075069</v>
       </c>
     </row>
     <row r="7038" spans="1:2">
@@ -56655,7 +56655,7 @@
         <v>7039</v>
       </c>
       <c r="B7039">
-        <v>801.4027552194487</v>
+        <v>801.4027552194486</v>
       </c>
     </row>
     <row r="7040" spans="1:2">
@@ -56775,7 +56775,7 @@
         <v>7054</v>
       </c>
       <c r="B7054">
-        <v>1237.301964572401</v>
+        <v>1237.3019645724</v>
       </c>
     </row>
     <row r="7055" spans="1:2">
@@ -56839,7 +56839,7 @@
         <v>7062</v>
       </c>
       <c r="B7062">
-        <v>696.0056175856691</v>
+        <v>696.005617585669</v>
       </c>
     </row>
     <row r="7063" spans="1:2">
@@ -56847,7 +56847,7 @@
         <v>7063</v>
       </c>
       <c r="B7063">
-        <v>684.9011559307908</v>
+        <v>684.9011559307907</v>
       </c>
     </row>
     <row r="7064" spans="1:2">
@@ -56911,7 +56911,7 @@
         <v>7071</v>
       </c>
       <c r="B7071">
-        <v>1563.182306011884</v>
+        <v>1563.182306011883</v>
       </c>
     </row>
     <row r="7072" spans="1:2">
@@ -57023,7 +57023,7 @@
         <v>7085</v>
       </c>
       <c r="B7085">
-        <v>951.7657823150386</v>
+        <v>951.7657823150385</v>
       </c>
     </row>
     <row r="7086" spans="1:2">
@@ -57031,7 +57031,7 @@
         <v>7086</v>
       </c>
       <c r="B7086">
-        <v>941.1829871089774</v>
+        <v>941.1829871089772</v>
       </c>
     </row>
     <row r="7087" spans="1:2">
@@ -57143,7 +57143,7 @@
         <v>7100</v>
       </c>
       <c r="B7100">
-        <v>1881.888268424937</v>
+        <v>1881.888268424936</v>
       </c>
     </row>
     <row r="7101" spans="1:2">
@@ -57207,7 +57207,7 @@
         <v>7108</v>
       </c>
       <c r="B7108">
-        <v>1565.714439785918</v>
+        <v>1565.714439785917</v>
       </c>
     </row>
     <row r="7109" spans="1:2">
@@ -57223,7 +57223,7 @@
         <v>7110</v>
       </c>
       <c r="B7110">
-        <v>1486.11341497511</v>
+        <v>1486.113414975109</v>
       </c>
     </row>
     <row r="7111" spans="1:2">
@@ -57303,7 +57303,7 @@
         <v>7120</v>
       </c>
       <c r="B7120">
-        <v>2043.30007367806</v>
+        <v>2043.300073678059</v>
       </c>
     </row>
     <row r="7121" spans="1:2">
@@ -57447,7 +57447,7 @@
         <v>7138</v>
       </c>
       <c r="B7138">
-        <v>590.7139855258076</v>
+        <v>590.7139855258075</v>
       </c>
     </row>
     <row r="7139" spans="1:2">
@@ -57455,7 +57455,7 @@
         <v>7139</v>
       </c>
       <c r="B7139">
-        <v>754.5905182140721</v>
+        <v>754.5905182140719</v>
       </c>
     </row>
     <row r="7140" spans="1:2">
@@ -57463,7 +57463,7 @@
         <v>7140</v>
       </c>
       <c r="B7140">
-        <v>892.1844401551871</v>
+        <v>892.184440155187</v>
       </c>
     </row>
     <row r="7141" spans="1:2">
@@ -57535,7 +57535,7 @@
         <v>7149</v>
       </c>
       <c r="B7149">
-        <v>726.3560543494381</v>
+        <v>726.356054349438</v>
       </c>
     </row>
     <row r="7150" spans="1:2">
@@ -57719,7 +57719,7 @@
         <v>7172</v>
       </c>
       <c r="B7172">
-        <v>337.0697936955731</v>
+        <v>337.069793695573</v>
       </c>
     </row>
     <row r="7173" spans="1:2">
@@ -57871,7 +57871,7 @@
         <v>7191</v>
       </c>
       <c r="B7191">
-        <v>882.5658486663217</v>
+        <v>882.5658486663216</v>
       </c>
     </row>
     <row r="7192" spans="1:2">
@@ -57895,7 +57895,7 @@
         <v>7194</v>
       </c>
       <c r="B7194">
-        <v>860.8082547561035</v>
+        <v>860.8082547561033</v>
       </c>
     </row>
     <row r="7195" spans="1:2">
@@ -57903,7 +57903,7 @@
         <v>7195</v>
       </c>
       <c r="B7195">
-        <v>818.8316898886389</v>
+        <v>818.8316898886388</v>
       </c>
     </row>
     <row r="7196" spans="1:2">
@@ -57911,7 +57911,7 @@
         <v>7196</v>
       </c>
       <c r="B7196">
-        <v>680.7776464168256</v>
+        <v>680.7776464168255</v>
       </c>
     </row>
     <row r="7197" spans="1:2">
@@ -57943,7 +57943,7 @@
         <v>7200</v>
       </c>
       <c r="B7200">
-        <v>286.8043006416498</v>
+        <v>286.8043006416497</v>
       </c>
     </row>
     <row r="7201" spans="1:2">
@@ -58039,7 +58039,7 @@
         <v>7212</v>
       </c>
       <c r="B7212">
-        <v>464.2509016330505</v>
+        <v>464.2509016330504</v>
       </c>
     </row>
     <row r="7213" spans="1:2">
@@ -58079,7 +58079,7 @@
         <v>7217</v>
       </c>
       <c r="B7217">
-        <v>902.8991173286458</v>
+        <v>902.8991173286456</v>
       </c>
     </row>
     <row r="7218" spans="1:2">
@@ -58255,7 +58255,7 @@
         <v>7239</v>
       </c>
       <c r="B7239">
-        <v>654.1345582921227</v>
+        <v>654.1345582921226</v>
       </c>
     </row>
     <row r="7240" spans="1:2">
@@ -58263,7 +58263,7 @@
         <v>7240</v>
       </c>
       <c r="B7240">
-        <v>698.6842868790338</v>
+        <v>698.6842868790337</v>
       </c>
     </row>
     <row r="7241" spans="1:2">
@@ -58279,7 +58279,7 @@
         <v>7242</v>
       </c>
       <c r="B7242">
-        <v>639.9206129170475</v>
+        <v>639.9206129170474</v>
       </c>
     </row>
     <row r="7243" spans="1:2">
@@ -58487,7 +58487,7 @@
         <v>7268</v>
       </c>
       <c r="B7268">
-        <v>87.29003658112705</v>
+        <v>87.29003658112704</v>
       </c>
     </row>
     <row r="7269" spans="1:2">
@@ -58639,7 +58639,7 @@
         <v>7287</v>
       </c>
       <c r="B7287">
-        <v>504.4162874815879</v>
+        <v>504.4162874815878</v>
       </c>
     </row>
     <row r="7288" spans="1:2">
@@ -59263,7 +59263,7 @@
         <v>7365</v>
       </c>
       <c r="B7365">
-        <v>391.6659974877951</v>
+        <v>391.665997487795</v>
       </c>
     </row>
     <row r="7366" spans="1:2">
@@ -59423,7 +59423,7 @@
         <v>7385</v>
       </c>
       <c r="B7385">
-        <v>693.8310304788019</v>
+        <v>693.8310304788018</v>
       </c>
     </row>
     <row r="7386" spans="1:2">
@@ -59439,7 +59439,7 @@
         <v>7387</v>
       </c>
       <c r="B7387">
-        <v>536.5192890565517</v>
+        <v>536.5192890565515</v>
       </c>
     </row>
     <row r="7388" spans="1:2">
@@ -59607,7 +59607,7 @@
         <v>7408</v>
       </c>
       <c r="B7408">
-        <v>868.8735697400637</v>
+        <v>868.8735697400635</v>
       </c>
     </row>
     <row r="7409" spans="1:2">
@@ -59623,7 +59623,7 @@
         <v>7410</v>
       </c>
       <c r="B7410">
-        <v>866.1069791351006</v>
+        <v>866.1069791351005</v>
       </c>
     </row>
     <row r="7411" spans="1:2">
@@ -59631,7 +59631,7 @@
         <v>7411</v>
       </c>
       <c r="B7411">
-        <v>819.4442083594412</v>
+        <v>819.4442083594411</v>
       </c>
     </row>
     <row r="7412" spans="1:2">
@@ -59639,7 +59639,7 @@
         <v>7412</v>
       </c>
       <c r="B7412">
-        <v>680.7483393129595</v>
+        <v>680.7483393129594</v>
       </c>
     </row>
     <row r="7413" spans="1:2">
@@ -59647,7 +59647,7 @@
         <v>7413</v>
       </c>
       <c r="B7413">
-        <v>641.2599475637298</v>
+        <v>641.2599475637297</v>
       </c>
     </row>
     <row r="7414" spans="1:2">
@@ -59791,7 +59791,7 @@
         <v>7431</v>
       </c>
       <c r="B7431">
-        <v>1054.52234989048</v>
+        <v>1054.522349890479</v>
       </c>
     </row>
     <row r="7432" spans="1:2">
@@ -59959,7 +59959,7 @@
         <v>7452</v>
       </c>
       <c r="B7452">
-        <v>681.2406986579106</v>
+        <v>681.2406986579105</v>
       </c>
     </row>
     <row r="7453" spans="1:2">
@@ -60031,7 +60031,7 @@
         <v>7461</v>
       </c>
       <c r="B7461">
-        <v>680.8391913349445</v>
+        <v>680.8391913349444</v>
       </c>
     </row>
     <row r="7462" spans="1:2">
@@ -60039,7 +60039,7 @@
         <v>7462</v>
       </c>
       <c r="B7462">
-        <v>532.4104330945196</v>
+        <v>532.4104330945195</v>
       </c>
     </row>
     <row r="7463" spans="1:2">
@@ -60047,7 +60047,7 @@
         <v>7463</v>
       </c>
       <c r="B7463">
-        <v>383.0555703719248</v>
+        <v>383.0555703719247</v>
       </c>
     </row>
     <row r="7464" spans="1:2">
@@ -61519,7 +61519,7 @@
         <v>7647</v>
       </c>
       <c r="B7647">
-        <v>363.4080879400682</v>
+        <v>363.4080879400681</v>
       </c>
     </row>
     <row r="7648" spans="1:2">
@@ -61727,7 +61727,7 @@
         <v>7673</v>
       </c>
       <c r="B7673">
-        <v>142.149418166067</v>
+        <v>142.1494181660669</v>
       </c>
     </row>
     <row r="7674" spans="1:2">
@@ -61903,7 +61903,7 @@
         <v>7695</v>
       </c>
       <c r="B7695">
-        <v>43.0591692842795</v>
+        <v>43.05916928427949</v>
       </c>
     </row>
     <row r="7696" spans="1:2">
@@ -61919,7 +61919,7 @@
         <v>7697</v>
       </c>
       <c r="B7697">
-        <v>90.89246578835233</v>
+        <v>90.8924657883523</v>
       </c>
     </row>
     <row r="7698" spans="1:2">
@@ -61935,7 +61935,7 @@
         <v>7699</v>
       </c>
       <c r="B7699">
-        <v>40.14721544414037</v>
+        <v>40.14721544414036</v>
       </c>
     </row>
     <row r="7700" spans="1:2">
@@ -62095,7 +62095,7 @@
         <v>7719</v>
       </c>
       <c r="B7719">
-        <v>509.8410324072094</v>
+        <v>509.8410324072093</v>
       </c>
     </row>
     <row r="7720" spans="1:2">
@@ -62103,7 +62103,7 @@
         <v>7720</v>
       </c>
       <c r="B7720">
-        <v>549.7807535559775</v>
+        <v>549.7807535559774</v>
       </c>
     </row>
     <row r="7721" spans="1:2">
@@ -62111,7 +62111,7 @@
         <v>7721</v>
       </c>
       <c r="B7721">
-        <v>490.8646826538873</v>
+        <v>490.8646826538872</v>
       </c>
     </row>
     <row r="7722" spans="1:2">
@@ -62119,7 +62119,7 @@
         <v>7722</v>
       </c>
       <c r="B7722">
-        <v>496.5356072519843</v>
+        <v>496.5356072519842</v>
       </c>
     </row>
     <row r="7723" spans="1:2">
@@ -62271,7 +62271,7 @@
         <v>7741</v>
       </c>
       <c r="B7741">
-        <v>368.7595651060244</v>
+        <v>368.7595651060243</v>
       </c>
     </row>
     <row r="7742" spans="1:2">
@@ -62327,7 +62327,7 @@
         <v>7748</v>
       </c>
       <c r="B7748">
-        <v>640.4715864697308</v>
+        <v>640.4715864697307</v>
       </c>
     </row>
     <row r="7749" spans="1:2">
@@ -62343,7 +62343,7 @@
         <v>7750</v>
       </c>
       <c r="B7750">
-        <v>487.0694127032229</v>
+        <v>487.0694127032228</v>
       </c>
     </row>
     <row r="7751" spans="1:2">
@@ -62351,7 +62351,7 @@
         <v>7751</v>
       </c>
       <c r="B7751">
-        <v>442.2735044438362</v>
+        <v>442.2735044438361</v>
       </c>
     </row>
     <row r="7752" spans="1:2">
@@ -62359,7 +62359,7 @@
         <v>7752</v>
       </c>
       <c r="B7752">
-        <v>336.8617132581236</v>
+        <v>336.8617132581235</v>
       </c>
     </row>
     <row r="7753" spans="1:2">
@@ -62391,7 +62391,7 @@
         <v>7756</v>
       </c>
       <c r="B7756">
-        <v>36.28776293600912</v>
+        <v>36.28776293600911</v>
       </c>
     </row>
     <row r="7757" spans="1:2">
@@ -62663,7 +62663,7 @@
         <v>7790</v>
       </c>
       <c r="B7790">
-        <v>568.7424497573666</v>
+        <v>568.7424497573664</v>
       </c>
     </row>
     <row r="7791" spans="1:2">
@@ -62687,7 +62687,7 @@
         <v>7793</v>
       </c>
       <c r="B7793">
-        <v>822.8057331728868</v>
+        <v>822.8057331728867</v>
       </c>
     </row>
     <row r="7794" spans="1:2">
@@ -62719,7 +62719,7 @@
         <v>7797</v>
       </c>
       <c r="B7797">
-        <v>487.1661261459811</v>
+        <v>487.166126145981</v>
       </c>
     </row>
     <row r="7798" spans="1:2">
@@ -62839,7 +62839,7 @@
         <v>7812</v>
       </c>
       <c r="B7812">
-        <v>266.8992087668099</v>
+        <v>266.8992087668098</v>
       </c>
     </row>
     <row r="7813" spans="1:2">
@@ -62863,7 +62863,7 @@
         <v>7815</v>
       </c>
       <c r="B7815">
-        <v>927.5024310242658</v>
+        <v>927.5024310242655</v>
       </c>
     </row>
     <row r="7816" spans="1:2">
@@ -62911,7 +62911,7 @@
         <v>7821</v>
       </c>
       <c r="B7821">
-        <v>1022.586398807553</v>
+        <v>1022.586398807552</v>
       </c>
     </row>
     <row r="7822" spans="1:2">
@@ -63647,7 +63647,7 @@
         <v>7913</v>
       </c>
       <c r="B7913">
-        <v>495.7912068137845</v>
+        <v>495.7912068137844</v>
       </c>
     </row>
     <row r="7914" spans="1:2">
@@ -63799,7 +63799,7 @@
         <v>7932</v>
       </c>
       <c r="B7932">
-        <v>43.06708220232336</v>
+        <v>43.06708220232335</v>
       </c>
     </row>
     <row r="7933" spans="1:2">
@@ -63815,7 +63815,7 @@
         <v>7934</v>
       </c>
       <c r="B7934">
-        <v>569.6070093214175</v>
+        <v>569.6070093214174</v>
       </c>
     </row>
     <row r="7935" spans="1:2">
@@ -63823,7 +63823,7 @@
         <v>7935</v>
       </c>
       <c r="B7935">
-        <v>708.4347603352968</v>
+        <v>708.4347603352967</v>
       </c>
     </row>
     <row r="7936" spans="1:2">
@@ -63887,7 +63887,7 @@
         <v>7943</v>
       </c>
       <c r="B7943">
-        <v>764.2061789925508</v>
+        <v>764.2061789925507</v>
       </c>
     </row>
     <row r="7944" spans="1:2">
@@ -63895,7 +63895,7 @@
         <v>7944</v>
       </c>
       <c r="B7944">
-        <v>837.2893039035305</v>
+        <v>837.2893039035304</v>
       </c>
     </row>
     <row r="7945" spans="1:2">
@@ -64095,7 +64095,7 @@
         <v>7969</v>
       </c>
       <c r="B7969">
-        <v>721.4441837414739</v>
+        <v>721.4441837414738</v>
       </c>
     </row>
     <row r="7970" spans="1:2">
@@ -64127,7 +64127,7 @@
         <v>7973</v>
       </c>
       <c r="B7973">
-        <v>277.2252737430037</v>
+        <v>277.2252737430036</v>
       </c>
     </row>
     <row r="7974" spans="1:2">
@@ -64159,7 +64159,7 @@
         <v>7977</v>
       </c>
       <c r="B7977">
-        <v>67.56371803987057</v>
+        <v>67.56371803987055</v>
       </c>
     </row>
     <row r="7978" spans="1:2">
@@ -64183,7 +64183,7 @@
         <v>7980</v>
       </c>
       <c r="B7980">
-        <v>565.0966460364194</v>
+        <v>565.0966460364193</v>
       </c>
     </row>
     <row r="7981" spans="1:2">
@@ -64255,7 +64255,7 @@
         <v>7989</v>
       </c>
       <c r="B7989">
-        <v>676.6570676132471</v>
+        <v>676.657067613247</v>
       </c>
     </row>
     <row r="7990" spans="1:2">
@@ -64439,7 +64439,7 @@
         <v>8012</v>
       </c>
       <c r="B8012">
-        <v>83.06629677193975</v>
+        <v>83.06629677193973</v>
       </c>
     </row>
     <row r="8013" spans="1:2">
@@ -65215,7 +65215,7 @@
         <v>8109</v>
       </c>
       <c r="B8109">
-        <v>286.6800385212574</v>
+        <v>286.6800385212573</v>
       </c>
     </row>
     <row r="8110" spans="1:2">
@@ -67679,7 +67679,7 @@
         <v>8417</v>
       </c>
       <c r="B8417">
-        <v>39.82132044914896</v>
+        <v>39.82132044914895</v>
       </c>
     </row>
     <row r="8418" spans="1:2">
@@ -69767,7 +69767,7 @@
         <v>8678</v>
       </c>
       <c r="B8678">
-        <v>210.5718343492153</v>
+        <v>210.5718343492152</v>
       </c>
     </row>
     <row r="8679" spans="1:2">
@@ -69975,7 +69975,7 @@
         <v>8704</v>
       </c>
       <c r="B8704">
-        <v>500.3836299896078</v>
+        <v>500.3836299896077</v>
       </c>
     </row>
     <row r="8705" spans="1:2">
@@ -69983,7 +69983,7 @@
         <v>8705</v>
       </c>
       <c r="B8705">
-        <v>495.946534464275</v>
+        <v>495.9465344642749</v>
       </c>
     </row>
     <row r="8706" spans="1:2">
@@ -70151,7 +70151,7 @@
         <v>8726</v>
       </c>
       <c r="B8726">
-        <v>763.0895783352511</v>
+        <v>763.089578335251</v>
       </c>
     </row>
     <row r="8727" spans="1:2">
@@ -70215,7 +70215,7 @@
         <v>8734</v>
       </c>
       <c r="B8734">
-        <v>282.4914672367094</v>
+        <v>282.4914672367093</v>
       </c>
     </row>
     <row r="8735" spans="1:2">
@@ -70351,7 +70351,7 @@
         <v>8751</v>
       </c>
       <c r="B8751">
-        <v>257.3225264364731</v>
+        <v>257.322526436473</v>
       </c>
     </row>
     <row r="8752" spans="1:2">
@@ -70391,7 +70391,7 @@
         <v>8756</v>
       </c>
       <c r="B8756">
-        <v>87.66487443957492</v>
+        <v>87.6648744395749</v>
       </c>
     </row>
     <row r="8757" spans="1:2">
